--- a/corrections/new_entries.xlsx
+++ b/corrections/new_entries.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\wow_vo_deps\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Desktop\wow_vo_webui\corrections\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A6E127-0DE6-4E9E-9A52-147E048AAC59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95FECCC1-B612-48A1-AA9D-4F7C940533FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="622">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2292" uniqueCount="608">
   <si>
     <t>source</t>
   </si>
@@ -991,15 +991,6 @@
     <t>The bones you have are from gentle sea mammals that are known to inhabit the thank you for your aid. Please accept this honorarium from the Temple of the Moon.</t>
   </si>
   <si>
-    <t>Learn to Ride in Elwynn Forest</t>
-  </si>
-  <si>
-    <t>Randal Hunter</t>
-  </si>
-  <si>
-    <t>So, shall we begin your Apprentice Riding training?</t>
-  </si>
-  <si>
     <t>The Missing Diplomat</t>
   </si>
   <si>
@@ -1173,12 +1164,6 @@
     <t>If you follow the road south from the village, and then west toward the Barrens, you'll come across the ruins of the Shady Rest Inn.
 Theramore has sent an investigator to discover how the inn met its fate. Normally, I'd advise you to steer clear, but we have orders from Orgrimmar to 'assist' in the investigation.
 Accept any help the Theramore investigator offers, even feed him a tidbit or two of information if you'd like, but save your real findings for me.</t>
-  </si>
-  <si>
-    <t>Is it Real?</t>
-  </si>
-  <si>
-    <t>So you want to know about sea monsters? Hmm... well, I'll make you a deal, but it's going to involve a lot of alcohol and some embarrassment on your part.</t>
   </si>
   <si>
     <t>Nat Pagle</t>
@@ -1389,23 +1374,7 @@
 With reports of Grimtotem activity on the rise in the marsh, this has to be more than a mere coincidence. I'm sending you to speak with Captain Darill, who is something of an expert on the Grimtotems. Follow the road north out of town to North Point tower. It's the second outpost on the road.</t>
   </si>
   <si>
-    <t>Tabetha's Assistance</t>
-  </si>
-  <si>
-    <t>So you want me to scry for Grimtotems, eh? And what will you say when I tell you there's no need?</t>
-  </si>
-  <si>
     <t>Tabetha</t>
-  </si>
-  <si>
-    <t>Raze Direhorn Post!</t>
-  </si>
-  <si>
-    <t>There's no scrying necessary to see the trouble my new "neighbors" are creating. And if this is the band that burnt down the Shady Rest Inn, as you claim, there's no reason to tolerate their presence any longer.
-Take this torch and raze their camp to the ground! You'll find Direhorn just to the north of my farm. You can't miss it, really, as the Grimtotems have done a splendid job of announcing their presence with those totems they favor.</t>
-  </si>
-  <si>
-    <t>I hope the Grimtotems got the message. Any attempt to return will be met with far worse than a mere torch. My apprentices and I will see to that.</t>
   </si>
   <si>
     <t>Justice for the Hyals</t>
@@ -1437,20 +1406,6 @@
     <t>When that goblin... what's her name... Boxie, Foxy... Moxie, that's it! Anyway, when she came through here on her way to the zeppelin wreck, she said the town of Mudsprocket was having some problems.
 That crashed zeppelin was bringing them fresh supplies. If you follow the road south from here, past the Stonemaul Ruins, you'll eventually come to Mudsprocket.
 Why don't you check in with Drazzit Dripvalve down there and see if there's anything you can do to help?</t>
-  </si>
-  <si>
-    <t>Tabetha's Farm</t>
-  </si>
-  <si>
-    <t>Deep in the heart of the swamp lives an old woman named Tabetha. We've never really known much about her, save that she's a good deal older than she appears. She's helped us from time to time and helped keep the peace here between the Horde and our forces.
-She used to keep in regular contact, but we haven't received one lately.
-Could you check in with her when you have time? Just follow the road beyond North Point Tower, where it turns south and into the Quagmire. You can see her farm from the road.</t>
-  </si>
-  <si>
-    <t>It's good of Theramore to send someone. Your guard friend's suspicions were correct. We've got some new neighbors, and they aren't the kind you'd bring a casserole.</t>
-  </si>
-  <si>
-    <t>Guard Byron</t>
   </si>
   <si>
     <t>Sunken Treasure</t>
@@ -2317,11 +2272,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K393"/>
+  <dimension ref="A1:K386"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A384" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K398" sqref="K398"/>
+      <pane ySplit="1" topLeftCell="A217" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M238" sqref="M238"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8855,69 +8810,69 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B191">
-        <v>14079</v>
+        <v>1241</v>
       </c>
       <c r="C191" t="s">
         <v>304</v>
       </c>
       <c r="D191" t="s">
+        <v>305</v>
+      </c>
+      <c r="E191">
+        <v>1</v>
+      </c>
+      <c r="F191">
+        <v>0</v>
+      </c>
+      <c r="G191" t="s">
         <v>306</v>
       </c>
-      <c r="E191">
-        <v>1</v>
-      </c>
-      <c r="F191">
-        <v>0</v>
-      </c>
-      <c r="G191" t="s">
+      <c r="H191" t="s">
+        <v>12</v>
+      </c>
+      <c r="I191">
+        <v>4960</v>
+      </c>
+      <c r="J191" t="s">
         <v>305</v>
       </c>
-      <c r="H191" t="s">
-        <v>12</v>
-      </c>
-      <c r="I191">
-        <v>4732</v>
-      </c>
-      <c r="J191" t="s">
-        <v>306</v>
-      </c>
       <c r="K191">
-        <v>2</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B192">
         <v>1241</v>
       </c>
       <c r="C192" t="s">
+        <v>304</v>
+      </c>
+      <c r="D192" t="s">
         <v>307</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192">
+        <v>1</v>
+      </c>
+      <c r="F192">
+        <v>0</v>
+      </c>
+      <c r="G192" t="s">
         <v>308</v>
       </c>
-      <c r="E192">
-        <v>1</v>
-      </c>
-      <c r="F192">
-        <v>0</v>
-      </c>
-      <c r="G192" t="s">
-        <v>309</v>
-      </c>
       <c r="H192" t="s">
         <v>12</v>
       </c>
       <c r="I192">
-        <v>4960</v>
+        <v>4959</v>
       </c>
       <c r="J192" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K192">
         <v>-77</v>
@@ -8925,16 +8880,16 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B193">
         <v>1241</v>
       </c>
       <c r="C193" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E193">
         <v>1</v>
@@ -8943,7 +8898,7 @@
         <v>0</v>
       </c>
       <c r="G193" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H193" t="s">
         <v>12</v>
@@ -8952,7 +8907,7 @@
         <v>4959</v>
       </c>
       <c r="J193" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="K193">
         <v>-77</v>
@@ -8960,16 +8915,16 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B194">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C194" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D194" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="E194">
         <v>1</v>
@@ -8978,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="G194" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="H194" t="s">
         <v>12</v>
@@ -8987,7 +8942,7 @@
         <v>4959</v>
       </c>
       <c r="J194" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K194">
         <v>-77</v>
@@ -8995,16 +8950,16 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B195">
         <v>1242</v>
       </c>
       <c r="C195" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D195" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="E195">
         <v>1</v>
@@ -9013,16 +8968,16 @@
         <v>0</v>
       </c>
       <c r="G195" t="s">
+        <v>312</v>
+      </c>
+      <c r="H195" t="s">
+        <v>12</v>
+      </c>
+      <c r="I195">
+        <v>482</v>
+      </c>
+      <c r="J195" t="s">
         <v>311</v>
-      </c>
-      <c r="H195" t="s">
-        <v>12</v>
-      </c>
-      <c r="I195">
-        <v>4959</v>
-      </c>
-      <c r="J195" t="s">
-        <v>313</v>
       </c>
       <c r="K195">
         <v>-77</v>
@@ -9030,16 +8985,16 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B196">
         <v>1242</v>
       </c>
       <c r="C196" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D196" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E196">
         <v>1</v>
@@ -9048,7 +9003,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H196" t="s">
         <v>12</v>
@@ -9057,7 +9012,7 @@
         <v>482</v>
       </c>
       <c r="J196" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="K196">
         <v>-77</v>
@@ -9065,16 +9020,16 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B197">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="C197" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D197" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E197">
         <v>1</v>
@@ -9083,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="G197" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H197" t="s">
         <v>12</v>
@@ -9092,7 +9047,7 @@
         <v>482</v>
       </c>
       <c r="J197" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K197">
         <v>-77</v>
@@ -9100,16 +9055,16 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B198">
         <v>1243</v>
       </c>
       <c r="C198" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D198" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E198">
         <v>1</v>
@@ -9118,16 +9073,16 @@
         <v>0</v>
       </c>
       <c r="G198" t="s">
+        <v>316</v>
+      </c>
+      <c r="H198" t="s">
+        <v>12</v>
+      </c>
+      <c r="I198">
+        <v>840</v>
+      </c>
+      <c r="J198" t="s">
         <v>315</v>
-      </c>
-      <c r="H198" t="s">
-        <v>12</v>
-      </c>
-      <c r="I198">
-        <v>482</v>
-      </c>
-      <c r="J198" t="s">
-        <v>317</v>
       </c>
       <c r="K198">
         <v>-77</v>
@@ -9135,16 +9090,16 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B199">
         <v>1243</v>
       </c>
       <c r="C199" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D199" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E199">
         <v>1</v>
@@ -9153,7 +9108,7 @@
         <v>0</v>
       </c>
       <c r="G199" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H199" t="s">
         <v>12</v>
@@ -9162,7 +9117,7 @@
         <v>840</v>
       </c>
       <c r="J199" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="K199">
         <v>-77</v>
@@ -9170,16 +9125,16 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B200">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C200" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D200" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E200">
         <v>1</v>
@@ -9188,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="G200" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H200" t="s">
         <v>12</v>
@@ -9197,7 +9152,7 @@
         <v>840</v>
       </c>
       <c r="J200" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K200">
         <v>-77</v>
@@ -9205,16 +9160,16 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B201">
         <v>1244</v>
       </c>
       <c r="C201" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D201" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -9223,7 +9178,7 @@
         <v>0</v>
       </c>
       <c r="G201" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H201" t="s">
         <v>12</v>
@@ -9232,7 +9187,7 @@
         <v>840</v>
       </c>
       <c r="J201" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K201">
         <v>-77</v>
@@ -9240,16 +9195,16 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B202">
         <v>1244</v>
       </c>
       <c r="C202" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D202" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E202">
         <v>1</v>
@@ -9258,7 +9213,7 @@
         <v>0</v>
       </c>
       <c r="G202" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H202" t="s">
         <v>12</v>
@@ -9267,7 +9222,7 @@
         <v>840</v>
       </c>
       <c r="J202" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K202">
         <v>-77</v>
@@ -9275,16 +9230,16 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B203">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C203" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D203" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E203">
         <v>1</v>
@@ -9293,7 +9248,7 @@
         <v>0</v>
       </c>
       <c r="G203" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="H203" t="s">
         <v>12</v>
@@ -9302,7 +9257,7 @@
         <v>840</v>
       </c>
       <c r="J203" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K203">
         <v>-77</v>
@@ -9310,16 +9265,16 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B204">
         <v>1245</v>
       </c>
       <c r="C204" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D204" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E204">
         <v>1</v>
@@ -9328,16 +9283,16 @@
         <v>0</v>
       </c>
       <c r="G204" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="H204" t="s">
         <v>12</v>
       </c>
       <c r="I204">
-        <v>840</v>
+        <v>482</v>
       </c>
       <c r="J204" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K204">
         <v>-77</v>
@@ -9345,16 +9300,16 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B205">
         <v>1245</v>
       </c>
       <c r="C205" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D205" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E205">
         <v>1</v>
@@ -9363,7 +9318,7 @@
         <v>0</v>
       </c>
       <c r="G205" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H205" t="s">
         <v>12</v>
@@ -9372,7 +9327,7 @@
         <v>482</v>
       </c>
       <c r="J205" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K205">
         <v>-77</v>
@@ -9380,16 +9335,16 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B206">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C206" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D206" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E206">
         <v>1</v>
@@ -9398,7 +9353,7 @@
         <v>0</v>
       </c>
       <c r="G206" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H206" t="s">
         <v>12</v>
@@ -9407,7 +9362,7 @@
         <v>482</v>
       </c>
       <c r="J206" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K206">
         <v>-77</v>
@@ -9415,34 +9370,34 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B207">
         <v>1246</v>
       </c>
       <c r="C207" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D207" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="E207">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F207">
         <v>0</v>
       </c>
       <c r="G207" t="s">
-        <v>315</v>
+        <v>326</v>
       </c>
       <c r="H207" t="s">
         <v>12</v>
       </c>
       <c r="I207">
-        <v>482</v>
+        <v>4961</v>
       </c>
       <c r="J207" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K207">
         <v>-77</v>
@@ -9450,16 +9405,16 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B208">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C208" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D208" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E208">
         <v>3</v>
@@ -9468,7 +9423,7 @@
         <v>0</v>
       </c>
       <c r="G208" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H208" t="s">
         <v>12</v>
@@ -9477,7 +9432,7 @@
         <v>4961</v>
       </c>
       <c r="J208" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K208">
         <v>-77</v>
@@ -9485,34 +9440,34 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B209">
         <v>1247</v>
       </c>
       <c r="C209" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D209" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E209">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F209">
         <v>0</v>
       </c>
       <c r="G209" t="s">
-        <v>329</v>
+        <v>312</v>
       </c>
       <c r="H209" t="s">
         <v>12</v>
       </c>
       <c r="I209">
-        <v>4961</v>
+        <v>482</v>
       </c>
       <c r="J209" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K209">
         <v>-77</v>
@@ -9520,16 +9475,16 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B210">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C210" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D210" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="E210">
         <v>1</v>
@@ -9538,7 +9493,7 @@
         <v>0</v>
       </c>
       <c r="G210" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="H210" t="s">
         <v>12</v>
@@ -9547,7 +9502,7 @@
         <v>482</v>
       </c>
       <c r="J210" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K210">
         <v>-77</v>
@@ -9555,16 +9510,16 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B211">
         <v>1248</v>
       </c>
       <c r="C211" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D211" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E211">
         <v>1</v>
@@ -9573,16 +9528,16 @@
         <v>0</v>
       </c>
       <c r="G211" t="s">
-        <v>315</v>
+        <v>331</v>
       </c>
       <c r="H211" t="s">
         <v>12</v>
       </c>
       <c r="I211">
-        <v>482</v>
+        <v>4963</v>
       </c>
       <c r="J211" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="K211">
         <v>-77</v>
@@ -9590,16 +9545,16 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B212">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="C212" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D212" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E212">
         <v>1</v>
@@ -9608,7 +9563,7 @@
         <v>0</v>
       </c>
       <c r="G212" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H212" t="s">
         <v>12</v>
@@ -9617,7 +9572,7 @@
         <v>4963</v>
       </c>
       <c r="J212" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="K212">
         <v>-77</v>
@@ -9625,16 +9580,16 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B213">
         <v>1249</v>
       </c>
       <c r="C213" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D213" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E213">
         <v>1</v>
@@ -9643,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="G213" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H213" t="s">
         <v>12</v>
@@ -9652,7 +9607,7 @@
         <v>4963</v>
       </c>
       <c r="J213" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K213">
         <v>-77</v>
@@ -9660,16 +9615,16 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B214">
         <v>1249</v>
       </c>
       <c r="C214" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D214" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="E214">
         <v>1</v>
@@ -9678,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="G214" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H214" t="s">
         <v>12</v>
@@ -9687,7 +9642,7 @@
         <v>4963</v>
       </c>
       <c r="J214" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K214">
         <v>-77</v>
@@ -9695,16 +9650,16 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B215">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C215" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D215" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E215">
         <v>1</v>
@@ -9713,16 +9668,16 @@
         <v>0</v>
       </c>
       <c r="G215" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="H215" t="s">
         <v>12</v>
       </c>
       <c r="I215">
-        <v>4963</v>
+        <v>4962</v>
       </c>
       <c r="J215" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K215">
         <v>-77</v>
@@ -9730,16 +9685,16 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B216">
         <v>1250</v>
       </c>
       <c r="C216" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D216" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E216">
         <v>1</v>
@@ -9748,16 +9703,16 @@
         <v>0</v>
       </c>
       <c r="G216" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="H216" t="s">
         <v>12</v>
       </c>
       <c r="I216">
-        <v>4962</v>
+        <v>4963</v>
       </c>
       <c r="J216" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="K216">
         <v>-77</v>
@@ -9765,16 +9720,16 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B217">
-        <v>1250</v>
+        <v>1264</v>
       </c>
       <c r="C217" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D217" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E217">
         <v>1</v>
@@ -9783,7 +9738,7 @@
         <v>0</v>
       </c>
       <c r="G217" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="H217" t="s">
         <v>12</v>
@@ -9792,7 +9747,7 @@
         <v>4963</v>
       </c>
       <c r="J217" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K217">
         <v>-77</v>
@@ -9800,16 +9755,16 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B218">
         <v>1264</v>
       </c>
       <c r="C218" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D218" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="E218">
         <v>1</v>
@@ -9818,16 +9773,16 @@
         <v>0</v>
       </c>
       <c r="G218" t="s">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="H218" t="s">
         <v>12</v>
       </c>
       <c r="I218">
-        <v>4963</v>
+        <v>4964</v>
       </c>
       <c r="J218" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K218">
         <v>-77</v>
@@ -9835,16 +9790,16 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B219">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C219" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D219" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E219">
         <v>1</v>
@@ -9853,7 +9808,7 @@
         <v>0</v>
       </c>
       <c r="G219" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="H219" t="s">
         <v>12</v>
@@ -9862,7 +9817,7 @@
         <v>4964</v>
       </c>
       <c r="J219" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="K219">
         <v>-77</v>
@@ -9870,16 +9825,16 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B220">
         <v>1265</v>
       </c>
       <c r="C220" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E220">
         <v>1</v>
@@ -9894,10 +9849,10 @@
         <v>12</v>
       </c>
       <c r="I220">
-        <v>4964</v>
+        <v>4967</v>
       </c>
       <c r="J220" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K220">
         <v>-77</v>
@@ -9905,16 +9860,16 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B221">
         <v>1265</v>
       </c>
       <c r="C221" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D221" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
       <c r="E221">
         <v>1</v>
@@ -9923,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="G221" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H221" t="s">
         <v>12</v>
@@ -9932,7 +9887,7 @@
         <v>4967</v>
       </c>
       <c r="J221" t="s">
-        <v>345</v>
+        <v>204</v>
       </c>
       <c r="K221">
         <v>-77</v>
@@ -9940,16 +9895,16 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B222">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C222" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D222" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="E222">
         <v>1</v>
@@ -9958,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="G222" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H222" t="s">
         <v>12</v>
@@ -9967,7 +9922,7 @@
         <v>4967</v>
       </c>
       <c r="J222" t="s">
-        <v>204</v>
+        <v>344</v>
       </c>
       <c r="K222">
         <v>-77</v>
@@ -9975,16 +9930,16 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B223">
         <v>1266</v>
       </c>
       <c r="C223" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E223">
         <v>1</v>
@@ -9999,10 +9954,10 @@
         <v>12</v>
       </c>
       <c r="I223">
-        <v>4967</v>
+        <v>4966</v>
       </c>
       <c r="J223" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="K223">
         <v>-77</v>
@@ -10013,31 +9968,31 @@
         <v>11</v>
       </c>
       <c r="B224">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="C224" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D224" t="s">
+        <v>347</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224" t="s">
         <v>348</v>
       </c>
-      <c r="E224">
-        <v>1</v>
-      </c>
-      <c r="F224">
-        <v>0</v>
-      </c>
-      <c r="G224" t="s">
-        <v>349</v>
-      </c>
       <c r="H224" t="s">
         <v>12</v>
       </c>
       <c r="I224">
-        <v>4966</v>
+        <v>4968</v>
       </c>
       <c r="J224" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K224">
         <v>-77</v>
@@ -10048,31 +10003,31 @@
         <v>11</v>
       </c>
       <c r="B225">
-        <v>1267</v>
+        <v>1274</v>
       </c>
       <c r="C225" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D225" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E225">
         <v>1</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G225" t="s">
-        <v>351</v>
+        <v>306</v>
       </c>
       <c r="H225" t="s">
         <v>12</v>
       </c>
       <c r="I225">
-        <v>4968</v>
+        <v>4960</v>
       </c>
       <c r="J225" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K225">
         <v>-77</v>
@@ -10080,16 +10035,16 @@
     </row>
     <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B226">
-        <v>1274</v>
+        <v>1324</v>
       </c>
       <c r="C226" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D226" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E226">
         <v>1</v>
@@ -10098,16 +10053,16 @@
         <v>0</v>
       </c>
       <c r="G226" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="H226" t="s">
         <v>12</v>
       </c>
       <c r="I226">
-        <v>4960</v>
+        <v>4966</v>
       </c>
       <c r="J226" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="K226">
         <v>-77</v>
@@ -10115,16 +10070,16 @@
     </row>
     <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B227">
         <v>1324</v>
       </c>
       <c r="C227" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D227" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E227">
         <v>1</v>
@@ -10133,16 +10088,16 @@
         <v>0</v>
       </c>
       <c r="G227" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="H227" t="s">
         <v>12</v>
       </c>
       <c r="I227">
-        <v>4966</v>
+        <v>4967</v>
       </c>
       <c r="J227" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="K227">
         <v>-77</v>
@@ -10150,16 +10105,16 @@
     </row>
     <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B228">
         <v>1324</v>
       </c>
       <c r="C228" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D228" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E228">
         <v>1</v>
@@ -10168,7 +10123,7 @@
         <v>0</v>
       </c>
       <c r="G228" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="H228" t="s">
         <v>12</v>
@@ -10177,7 +10132,7 @@
         <v>4967</v>
       </c>
       <c r="J228" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="K228">
         <v>-77</v>
@@ -10185,34 +10140,34 @@
     </row>
     <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B229">
-        <v>1324</v>
+        <v>1447</v>
       </c>
       <c r="C229" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D229" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E229">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F229">
         <v>0</v>
       </c>
       <c r="G229" t="s">
-        <v>346</v>
+        <v>326</v>
       </c>
       <c r="H229" t="s">
         <v>12</v>
       </c>
       <c r="I229">
-        <v>4967</v>
+        <v>4961</v>
       </c>
       <c r="J229" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="K229">
         <v>-77</v>
@@ -10220,16 +10175,16 @@
     </row>
     <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B230">
         <v>1447</v>
       </c>
       <c r="C230" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D230" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E230">
         <v>3</v>
@@ -10238,7 +10193,7 @@
         <v>0</v>
       </c>
       <c r="G230" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H230" t="s">
         <v>12</v>
@@ -10247,7 +10202,7 @@
         <v>4961</v>
       </c>
       <c r="J230" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="K230">
         <v>-77</v>
@@ -10255,16 +10210,16 @@
     </row>
     <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B231">
         <v>1447</v>
       </c>
       <c r="C231" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D231" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E231">
         <v>3</v>
@@ -10273,7 +10228,7 @@
         <v>0</v>
       </c>
       <c r="G231" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H231" t="s">
         <v>12</v>
@@ -10282,7 +10237,7 @@
         <v>4961</v>
       </c>
       <c r="J231" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="K231">
         <v>-77</v>
@@ -10290,37 +10245,37 @@
     </row>
     <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B232">
-        <v>1447</v>
+        <v>11123</v>
       </c>
       <c r="C232" t="s">
-        <v>307</v>
+        <v>356</v>
       </c>
       <c r="D232" t="s">
+        <v>359</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>0</v>
+      </c>
+      <c r="G232" t="s">
         <v>358</v>
       </c>
-      <c r="E232">
-        <v>3</v>
-      </c>
-      <c r="F232">
-        <v>0</v>
-      </c>
-      <c r="G232" t="s">
-        <v>329</v>
-      </c>
       <c r="H232" t="s">
         <v>12</v>
       </c>
       <c r="I232">
-        <v>4961</v>
+        <v>4944</v>
       </c>
       <c r="J232" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="K232">
-        <v>-77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="233" spans="1:11" x14ac:dyDescent="0.25">
@@ -10328,31 +10283,31 @@
         <v>13</v>
       </c>
       <c r="B233">
-        <v>11123</v>
+        <v>11124</v>
       </c>
       <c r="C233" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D233" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="E233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F233">
         <v>0</v>
       </c>
       <c r="G233" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H233" t="s">
         <v>12</v>
       </c>
       <c r="I233">
-        <v>4944</v>
+        <v>4926</v>
       </c>
       <c r="J233" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="K233">
         <v>1</v>
@@ -10363,31 +10318,31 @@
         <v>13</v>
       </c>
       <c r="B234">
-        <v>11124</v>
+        <v>11209</v>
       </c>
       <c r="C234" t="s">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="D234" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E234">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F234">
         <v>0</v>
       </c>
       <c r="G234" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H234" t="s">
         <v>12</v>
       </c>
       <c r="I234">
-        <v>4926</v>
+        <v>12919</v>
       </c>
       <c r="J234" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K234">
         <v>1</v>
@@ -10398,13 +10353,13 @@
         <v>11</v>
       </c>
       <c r="B235">
-        <v>11194</v>
+        <v>11209</v>
       </c>
       <c r="C235" t="s">
         <v>364</v>
       </c>
       <c r="D235" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -10413,7 +10368,7 @@
         <v>0</v>
       </c>
       <c r="G235" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H235" t="s">
         <v>12</v>
@@ -10422,7 +10377,7 @@
         <v>12919</v>
       </c>
       <c r="J235" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="K235">
         <v>1</v>
@@ -10433,13 +10388,13 @@
         <v>13</v>
       </c>
       <c r="B236">
-        <v>11209</v>
+        <v>11210</v>
       </c>
       <c r="C236" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D236" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E236">
         <v>1</v>
@@ -10448,7 +10403,7 @@
         <v>0</v>
       </c>
       <c r="G236" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="H236" t="s">
         <v>12</v>
@@ -10457,7 +10412,7 @@
         <v>12919</v>
       </c>
       <c r="J236" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K236">
         <v>1</v>
@@ -10468,13 +10423,13 @@
         <v>11</v>
       </c>
       <c r="B237">
-        <v>11209</v>
+        <v>11210</v>
       </c>
       <c r="C237" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D237" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E237">
         <v>1</v>
@@ -10483,16 +10438,16 @@
         <v>0</v>
       </c>
       <c r="G237" t="s">
-        <v>366</v>
+        <v>371</v>
       </c>
       <c r="H237" t="s">
         <v>12</v>
       </c>
       <c r="I237">
-        <v>12919</v>
+        <v>23905</v>
       </c>
       <c r="J237" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K237">
         <v>1</v>
@@ -10503,31 +10458,31 @@
         <v>13</v>
       </c>
       <c r="B238">
-        <v>11210</v>
+        <v>11198</v>
       </c>
       <c r="C238" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D238" t="s">
+        <v>369</v>
+      </c>
+      <c r="E238">
+        <v>1</v>
+      </c>
+      <c r="F238">
+        <v>0</v>
+      </c>
+      <c r="G238" t="s">
         <v>371</v>
       </c>
-      <c r="E238">
-        <v>1</v>
-      </c>
-      <c r="F238">
-        <v>0</v>
-      </c>
-      <c r="G238" t="s">
-        <v>366</v>
-      </c>
       <c r="H238" t="s">
         <v>12</v>
       </c>
       <c r="I238">
-        <v>12919</v>
+        <v>23905</v>
       </c>
       <c r="J238" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="K238">
         <v>1</v>
@@ -10538,14 +10493,14 @@
         <v>11</v>
       </c>
       <c r="B239">
-        <v>11210</v>
+        <v>11198</v>
       </c>
       <c r="C239" t="s">
+        <v>368</v>
+      </c>
+      <c r="D239" t="s">
         <v>370</v>
       </c>
-      <c r="D239" t="s">
-        <v>372</v>
-      </c>
       <c r="E239">
         <v>1</v>
       </c>
@@ -10553,7 +10508,7 @@
         <v>0</v>
       </c>
       <c r="G239" t="s">
-        <v>376</v>
+        <v>371</v>
       </c>
       <c r="H239" t="s">
         <v>12</v>
@@ -10562,7 +10517,7 @@
         <v>23905</v>
       </c>
       <c r="J239" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="K239">
         <v>1</v>
@@ -10570,34 +10525,34 @@
     </row>
     <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B240">
-        <v>11198</v>
+        <v>11177</v>
       </c>
       <c r="C240" t="s">
+        <v>372</v>
+      </c>
+      <c r="D240" t="s">
         <v>373</v>
       </c>
-      <c r="D240" t="s">
+      <c r="E240">
+        <v>1</v>
+      </c>
+      <c r="F240">
+        <v>0</v>
+      </c>
+      <c r="G240" t="s">
         <v>374</v>
       </c>
-      <c r="E240">
-        <v>1</v>
-      </c>
-      <c r="F240">
-        <v>0</v>
-      </c>
-      <c r="G240" t="s">
-        <v>376</v>
-      </c>
       <c r="H240" t="s">
         <v>12</v>
       </c>
       <c r="I240">
-        <v>23905</v>
+        <v>4792</v>
       </c>
       <c r="J240" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="K240">
         <v>1</v>
@@ -10608,34 +10563,34 @@
         <v>11</v>
       </c>
       <c r="B241">
-        <v>11198</v>
+        <v>1059</v>
       </c>
       <c r="C241" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="D241" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="E241">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F241">
         <v>0</v>
       </c>
       <c r="G241" t="s">
+        <v>377</v>
+      </c>
+      <c r="H241" t="s">
+        <v>12</v>
+      </c>
+      <c r="I241">
+        <v>4048</v>
+      </c>
+      <c r="J241" t="s">
         <v>376</v>
       </c>
-      <c r="H241" t="s">
-        <v>12</v>
-      </c>
-      <c r="I241">
-        <v>23905</v>
-      </c>
-      <c r="J241" t="s">
-        <v>375</v>
-      </c>
       <c r="K241">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
@@ -10643,13 +10598,13 @@
         <v>11</v>
       </c>
       <c r="B242">
-        <v>11177</v>
+        <v>11136</v>
       </c>
       <c r="C242" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="D242" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="E242">
         <v>1</v>
@@ -10658,16 +10613,16 @@
         <v>0</v>
       </c>
       <c r="G242" t="s">
+        <v>380</v>
+      </c>
+      <c r="H242" t="s">
+        <v>12</v>
+      </c>
+      <c r="I242">
+        <v>5086</v>
+      </c>
+      <c r="J242" t="s">
         <v>379</v>
-      </c>
-      <c r="H242" t="s">
-        <v>12</v>
-      </c>
-      <c r="I242">
-        <v>4792</v>
-      </c>
-      <c r="J242" t="s">
-        <v>378</v>
       </c>
       <c r="K242">
         <v>1</v>
@@ -10675,37 +10630,37 @@
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B243">
-        <v>1059</v>
+        <v>11137</v>
       </c>
       <c r="C243" t="s">
+        <v>381</v>
+      </c>
+      <c r="D243" t="s">
+        <v>382</v>
+      </c>
+      <c r="E243">
+        <v>1</v>
+      </c>
+      <c r="F243">
+        <v>0</v>
+      </c>
+      <c r="G243" t="s">
         <v>380</v>
       </c>
-      <c r="D243" t="s">
-        <v>381</v>
-      </c>
-      <c r="E243">
-        <v>4</v>
-      </c>
-      <c r="F243">
-        <v>0</v>
-      </c>
-      <c r="G243" t="s">
+      <c r="H243" t="s">
+        <v>12</v>
+      </c>
+      <c r="I243">
+        <v>5086</v>
+      </c>
+      <c r="J243" t="s">
         <v>382</v>
       </c>
-      <c r="H243" t="s">
-        <v>12</v>
-      </c>
-      <c r="I243">
-        <v>4048</v>
-      </c>
-      <c r="J243" t="s">
-        <v>381</v>
-      </c>
       <c r="K243">
-        <v>-77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
@@ -10713,14 +10668,14 @@
         <v>11</v>
       </c>
       <c r="B244">
-        <v>11136</v>
+        <v>11137</v>
       </c>
       <c r="C244" t="s">
+        <v>381</v>
+      </c>
+      <c r="D244" t="s">
         <v>383</v>
       </c>
-      <c r="D244" t="s">
-        <v>384</v>
-      </c>
       <c r="E244">
         <v>1</v>
       </c>
@@ -10728,7 +10683,7 @@
         <v>0</v>
       </c>
       <c r="G244" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H244" t="s">
         <v>12</v>
@@ -10737,7 +10692,7 @@
         <v>5086</v>
       </c>
       <c r="J244" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K244">
         <v>1</v>
@@ -10748,13 +10703,13 @@
         <v>13</v>
       </c>
       <c r="B245">
-        <v>11137</v>
+        <v>11138</v>
       </c>
       <c r="C245" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="E245">
         <v>1</v>
@@ -10763,7 +10718,7 @@
         <v>0</v>
       </c>
       <c r="G245" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="H245" t="s">
         <v>12</v>
@@ -10772,7 +10727,7 @@
         <v>5086</v>
       </c>
       <c r="J245" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K245">
         <v>1</v>
@@ -10780,16 +10735,16 @@
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B246">
-        <v>11137</v>
+        <v>1218</v>
       </c>
       <c r="C246" t="s">
         <v>386</v>
       </c>
       <c r="D246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E246">
         <v>1</v>
@@ -10798,33 +10753,33 @@
         <v>0</v>
       </c>
       <c r="G246" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H246" t="s">
         <v>12</v>
       </c>
       <c r="I246">
-        <v>5086</v>
+        <v>4792</v>
       </c>
       <c r="J246" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="K246">
-        <v>1</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B247">
-        <v>11138</v>
+        <v>1218</v>
       </c>
       <c r="C247" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D247" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E247">
         <v>1</v>
@@ -10833,54 +10788,54 @@
         <v>0</v>
       </c>
       <c r="G247" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="H247" t="s">
         <v>12</v>
       </c>
       <c r="I247">
-        <v>5086</v>
+        <v>4792</v>
       </c>
       <c r="J247" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="K247">
-        <v>1</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B248">
-        <v>1218</v>
+        <v>10175</v>
       </c>
       <c r="C248" t="s">
+        <v>389</v>
+      </c>
+      <c r="D248" t="s">
+        <v>390</v>
+      </c>
+      <c r="E248">
+        <v>2</v>
+      </c>
+      <c r="F248">
+        <v>0</v>
+      </c>
+      <c r="G248" t="s">
         <v>391</v>
       </c>
-      <c r="D248" t="s">
-        <v>392</v>
-      </c>
-      <c r="E248">
-        <v>1</v>
-      </c>
-      <c r="F248">
-        <v>0</v>
-      </c>
-      <c r="G248" t="s">
-        <v>379</v>
-      </c>
       <c r="H248" t="s">
         <v>12</v>
       </c>
       <c r="I248">
-        <v>4792</v>
+        <v>4949</v>
       </c>
       <c r="J248" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="K248">
-        <v>-88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="249" spans="1:11" x14ac:dyDescent="0.25">
@@ -10888,48 +10843,48 @@
         <v>11</v>
       </c>
       <c r="B249">
-        <v>1218</v>
+        <v>9438</v>
       </c>
       <c r="C249" t="s">
+        <v>283</v>
+      </c>
+      <c r="D249" t="s">
+        <v>392</v>
+      </c>
+      <c r="E249">
+        <v>2</v>
+      </c>
+      <c r="F249">
+        <v>0</v>
+      </c>
+      <c r="G249" t="s">
         <v>391</v>
       </c>
-      <c r="D249" t="s">
-        <v>393</v>
-      </c>
-      <c r="E249">
-        <v>1</v>
-      </c>
-      <c r="F249">
-        <v>0</v>
-      </c>
-      <c r="G249" t="s">
-        <v>379</v>
-      </c>
       <c r="H249" t="s">
         <v>12</v>
       </c>
       <c r="I249">
-        <v>4792</v>
+        <v>4949</v>
       </c>
       <c r="J249" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="K249">
-        <v>-88</v>
+        <v>1</v>
       </c>
     </row>
     <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B250">
-        <v>10175</v>
+        <v>9441</v>
       </c>
       <c r="C250" t="s">
+        <v>393</v>
+      </c>
+      <c r="D250" t="s">
         <v>394</v>
-      </c>
-      <c r="D250" t="s">
-        <v>395</v>
       </c>
       <c r="E250">
         <v>2</v>
@@ -10938,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="G250" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H250" t="s">
         <v>12</v>
@@ -10947,7 +10902,7 @@
         <v>4949</v>
       </c>
       <c r="J250" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="K250">
         <v>1</v>
@@ -10955,16 +10910,16 @@
     </row>
     <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B251">
-        <v>9438</v>
+        <v>10212</v>
       </c>
       <c r="C251" t="s">
-        <v>283</v>
+        <v>395</v>
       </c>
       <c r="D251" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E251">
         <v>2</v>
@@ -10973,7 +10928,7 @@
         <v>0</v>
       </c>
       <c r="G251" t="s">
-        <v>396</v>
+        <v>391</v>
       </c>
       <c r="H251" t="s">
         <v>12</v>
@@ -10982,7 +10937,7 @@
         <v>4949</v>
       </c>
       <c r="J251" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K251">
         <v>1</v>
@@ -10990,37 +10945,37 @@
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B252">
-        <v>9441</v>
+        <v>1252</v>
       </c>
       <c r="C252" t="s">
         <v>398</v>
       </c>
       <c r="D252" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E252">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F252">
         <v>0</v>
       </c>
       <c r="G252" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="H252" t="s">
         <v>12</v>
       </c>
       <c r="I252">
-        <v>4949</v>
+        <v>4944</v>
       </c>
       <c r="J252" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="K252">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
@@ -11028,34 +10983,34 @@
         <v>13</v>
       </c>
       <c r="B253">
-        <v>10212</v>
+        <v>1259</v>
       </c>
       <c r="C253" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D253" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E253">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F253">
         <v>0</v>
       </c>
       <c r="G253" t="s">
-        <v>396</v>
+        <v>358</v>
       </c>
       <c r="H253" t="s">
         <v>12</v>
       </c>
       <c r="I253">
-        <v>4949</v>
+        <v>4944</v>
       </c>
       <c r="J253" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K253">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
@@ -11063,13 +11018,13 @@
         <v>11</v>
       </c>
       <c r="B254">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="C254" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D254" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="E254">
         <v>1</v>
@@ -11078,16 +11033,16 @@
         <v>0</v>
       </c>
       <c r="G254" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="H254" t="s">
         <v>12</v>
       </c>
       <c r="I254">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="J254" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="K254">
         <v>-77</v>
@@ -11095,34 +11050,34 @@
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B255">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="C255" t="s">
+        <v>402</v>
+      </c>
+      <c r="D255" t="s">
         <v>403</v>
       </c>
-      <c r="D255" t="s">
-        <v>404</v>
-      </c>
       <c r="E255">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F255">
         <v>0</v>
       </c>
       <c r="G255" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H255" t="s">
         <v>12</v>
       </c>
       <c r="I255">
-        <v>4944</v>
+        <v>4926</v>
       </c>
       <c r="J255" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="K255">
         <v>-77</v>
@@ -11130,34 +11085,34 @@
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B256">
-        <v>1259</v>
+        <v>1251</v>
       </c>
       <c r="C256" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D256" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E256">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F256">
         <v>0</v>
       </c>
       <c r="G256" t="s">
-        <v>406</v>
+        <v>357</v>
       </c>
       <c r="H256" t="s">
         <v>12</v>
       </c>
       <c r="I256">
-        <v>4948</v>
+        <v>4926</v>
       </c>
       <c r="J256" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="K256">
         <v>-77</v>
@@ -11168,31 +11123,31 @@
         <v>11</v>
       </c>
       <c r="B257">
-        <v>1251</v>
+        <v>1253</v>
       </c>
       <c r="C257" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="D257" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E257">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F257">
         <v>0</v>
       </c>
       <c r="G257" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H257" t="s">
         <v>12</v>
       </c>
       <c r="I257">
-        <v>4926</v>
+        <v>4944</v>
       </c>
       <c r="J257" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="K257">
         <v>-77</v>
@@ -11200,16 +11155,16 @@
     </row>
     <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B258">
-        <v>1251</v>
+        <v>1276</v>
       </c>
       <c r="C258" t="s">
+        <v>405</v>
+      </c>
+      <c r="D258" t="s">
         <v>407</v>
-      </c>
-      <c r="D258" t="s">
-        <v>409</v>
       </c>
       <c r="E258">
         <v>2</v>
@@ -11218,7 +11173,7 @@
         <v>0</v>
       </c>
       <c r="G258" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="H258" t="s">
         <v>12</v>
@@ -11227,7 +11182,7 @@
         <v>4926</v>
       </c>
       <c r="J258" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="K258">
         <v>-77</v>
@@ -11238,31 +11193,31 @@
         <v>11</v>
       </c>
       <c r="B259">
-        <v>1253</v>
+        <v>1276</v>
       </c>
       <c r="C259" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D259" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="E259">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F259">
         <v>0</v>
       </c>
       <c r="G259" t="s">
-        <v>361</v>
+        <v>409</v>
       </c>
       <c r="H259" t="s">
         <v>12</v>
       </c>
       <c r="I259">
-        <v>4944</v>
+        <v>4943</v>
       </c>
       <c r="J259" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="K259">
         <v>-77</v>
@@ -11273,31 +11228,31 @@
         <v>13</v>
       </c>
       <c r="B260">
-        <v>1276</v>
+        <v>1319</v>
       </c>
       <c r="C260" t="s">
+        <v>405</v>
+      </c>
+      <c r="D260" t="s">
         <v>410</v>
       </c>
-      <c r="D260" t="s">
-        <v>412</v>
-      </c>
       <c r="E260">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F260">
         <v>0</v>
       </c>
       <c r="G260" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H260" t="s">
         <v>12</v>
       </c>
       <c r="I260">
-        <v>4926</v>
+        <v>4944</v>
       </c>
       <c r="J260" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="K260">
         <v>-77</v>
@@ -11308,31 +11263,31 @@
         <v>11</v>
       </c>
       <c r="B261">
-        <v>1276</v>
+        <v>1319</v>
       </c>
       <c r="C261" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D261" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E261">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F261">
         <v>0</v>
       </c>
       <c r="G261" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="H261" t="s">
         <v>12</v>
       </c>
       <c r="I261">
-        <v>4943</v>
+        <v>4941</v>
       </c>
       <c r="J261" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="K261">
         <v>-77</v>
@@ -11343,31 +11298,31 @@
         <v>13</v>
       </c>
       <c r="B262">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C262" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D262" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E262">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F262">
         <v>0</v>
       </c>
       <c r="G262" t="s">
-        <v>361</v>
+        <v>412</v>
       </c>
       <c r="H262" t="s">
         <v>12</v>
       </c>
       <c r="I262">
-        <v>4944</v>
+        <v>4941</v>
       </c>
       <c r="J262" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="K262">
         <v>-77</v>
@@ -11378,31 +11333,31 @@
         <v>11</v>
       </c>
       <c r="B263">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="C263" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D263" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E263">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F263">
         <v>0</v>
       </c>
       <c r="G263" t="s">
-        <v>417</v>
+        <v>358</v>
       </c>
       <c r="H263" t="s">
         <v>12</v>
       </c>
       <c r="I263">
-        <v>4941</v>
+        <v>4944</v>
       </c>
       <c r="J263" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="K263">
         <v>-77</v>
@@ -11413,31 +11368,31 @@
         <v>13</v>
       </c>
       <c r="B264">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="C264" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D264" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="E264">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="F264">
         <v>0</v>
       </c>
       <c r="G264" t="s">
-        <v>417</v>
+        <v>357</v>
       </c>
       <c r="H264" t="s">
         <v>12</v>
       </c>
       <c r="I264">
-        <v>4941</v>
+        <v>4926</v>
       </c>
       <c r="J264" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="K264">
         <v>-77</v>
@@ -11448,31 +11403,31 @@
         <v>11</v>
       </c>
       <c r="B265">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="C265" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="D265" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E265">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F265">
         <v>0</v>
       </c>
       <c r="G265" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H265" t="s">
         <v>12</v>
       </c>
       <c r="I265">
-        <v>4944</v>
+        <v>4926</v>
       </c>
       <c r="J265" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="K265">
         <v>-77</v>
@@ -11480,34 +11435,34 @@
     </row>
     <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B266">
-        <v>1321</v>
+        <v>1252</v>
       </c>
       <c r="C266" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D266" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="E266">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F266">
         <v>0</v>
       </c>
       <c r="G266" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H266" t="s">
         <v>12</v>
       </c>
       <c r="I266">
-        <v>4926</v>
+        <v>4944</v>
       </c>
       <c r="J266" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="K266">
         <v>-77</v>
@@ -11515,34 +11470,34 @@
     </row>
     <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B267">
-        <v>1323</v>
+        <v>1259</v>
       </c>
       <c r="C267" t="s">
-        <v>410</v>
+        <v>398</v>
       </c>
       <c r="D267" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="E267">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F267">
         <v>0</v>
       </c>
       <c r="G267" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H267" t="s">
         <v>12</v>
       </c>
       <c r="I267">
-        <v>4926</v>
+        <v>4944</v>
       </c>
       <c r="J267" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="K267">
         <v>-77</v>
@@ -11553,13 +11508,13 @@
         <v>11</v>
       </c>
       <c r="B268">
-        <v>1252</v>
+        <v>1259</v>
       </c>
       <c r="C268" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D268" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E268">
         <v>1</v>
@@ -11568,16 +11523,16 @@
         <v>0</v>
       </c>
       <c r="G268" t="s">
-        <v>361</v>
+        <v>401</v>
       </c>
       <c r="H268" t="s">
         <v>12</v>
       </c>
       <c r="I268">
-        <v>4944</v>
+        <v>4948</v>
       </c>
       <c r="J268" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="K268">
         <v>-77</v>
@@ -11585,34 +11540,34 @@
     </row>
     <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B269">
-        <v>1259</v>
+        <v>1269</v>
       </c>
       <c r="C269" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D269" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="E269">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F269">
         <v>0</v>
       </c>
       <c r="G269" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="H269" t="s">
         <v>12</v>
       </c>
       <c r="I269">
-        <v>4944</v>
+        <v>4926</v>
       </c>
       <c r="J269" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="K269">
         <v>-77</v>
@@ -11620,16 +11575,16 @@
     </row>
     <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B270">
-        <v>1259</v>
+        <v>11143</v>
       </c>
       <c r="C270" t="s">
-        <v>403</v>
+        <v>421</v>
       </c>
       <c r="D270" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E270">
         <v>1</v>
@@ -11638,69 +11593,69 @@
         <v>0</v>
       </c>
       <c r="G270" t="s">
-        <v>406</v>
+        <v>358</v>
       </c>
       <c r="H270" t="s">
         <v>12</v>
       </c>
       <c r="I270">
-        <v>4948</v>
+        <v>4944</v>
       </c>
       <c r="J270" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="K270">
-        <v>-77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B271">
-        <v>1269</v>
+        <v>11151</v>
       </c>
       <c r="C271" t="s">
-        <v>403</v>
+        <v>424</v>
       </c>
       <c r="D271" t="s">
         <v>425</v>
       </c>
       <c r="E271">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F271">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G271" t="s">
-        <v>360</v>
+        <v>423</v>
       </c>
       <c r="H271" t="s">
         <v>12</v>
       </c>
       <c r="I271">
-        <v>4926</v>
+        <v>6546</v>
       </c>
       <c r="J271" t="s">
         <v>425</v>
       </c>
       <c r="K271">
-        <v>-77</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B272">
-        <v>11143</v>
+        <v>11151</v>
       </c>
       <c r="C272" t="s">
+        <v>424</v>
+      </c>
+      <c r="D272" t="s">
         <v>426</v>
       </c>
-      <c r="D272" t="s">
-        <v>427</v>
-      </c>
       <c r="E272">
         <v>1</v>
       </c>
@@ -11708,7 +11663,7 @@
         <v>0</v>
       </c>
       <c r="G272" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="H272" t="s">
         <v>12</v>
@@ -11717,7 +11672,7 @@
         <v>4944</v>
       </c>
       <c r="J272" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="K272">
         <v>1</v>
@@ -11725,34 +11680,34 @@
     </row>
     <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B273">
-        <v>11149</v>
+        <v>11152</v>
       </c>
       <c r="C273" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D273" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E273">
         <v>1</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G273" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="H273" t="s">
         <v>12</v>
       </c>
       <c r="I273">
-        <v>6546</v>
+        <v>4944</v>
       </c>
       <c r="J273" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="K273">
         <v>1</v>
@@ -11760,34 +11715,34 @@
     </row>
     <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B274">
-        <v>11150</v>
+        <v>11152</v>
       </c>
       <c r="C274" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D274" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="E274">
         <v>1</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G274" t="s">
-        <v>430</v>
+        <v>358</v>
       </c>
       <c r="H274" t="s">
         <v>12</v>
       </c>
       <c r="I274">
-        <v>6546</v>
+        <v>4944</v>
       </c>
       <c r="J274" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="K274">
         <v>1</v>
@@ -11795,17 +11750,17 @@
     </row>
     <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B275">
-        <v>11150</v>
+        <v>11211</v>
       </c>
       <c r="C275" t="s">
+        <v>430</v>
+      </c>
+      <c r="D275" t="s">
         <v>431</v>
       </c>
-      <c r="D275" t="s">
-        <v>433</v>
-      </c>
       <c r="E275">
         <v>1</v>
       </c>
@@ -11813,7 +11768,7 @@
         <v>1</v>
       </c>
       <c r="G275" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="H275" t="s">
         <v>12</v>
@@ -11822,7 +11777,7 @@
         <v>6546</v>
       </c>
       <c r="J275" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="K275">
         <v>1</v>
@@ -11833,34 +11788,34 @@
         <v>13</v>
       </c>
       <c r="B276">
-        <v>11151</v>
+        <v>665</v>
       </c>
       <c r="C276" t="s">
+        <v>432</v>
+      </c>
+      <c r="D276" t="s">
+        <v>433</v>
+      </c>
+      <c r="E276">
+        <v>7</v>
+      </c>
+      <c r="F276">
+        <v>0</v>
+      </c>
+      <c r="G276" t="s">
         <v>434</v>
       </c>
-      <c r="D276" t="s">
-        <v>435</v>
-      </c>
-      <c r="E276">
-        <v>1</v>
-      </c>
-      <c r="F276">
-        <v>1</v>
-      </c>
-      <c r="G276" t="s">
-        <v>430</v>
-      </c>
       <c r="H276" t="s">
         <v>12</v>
       </c>
       <c r="I276">
-        <v>6546</v>
+        <v>2768</v>
       </c>
       <c r="J276" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="K276">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="277" spans="1:11" x14ac:dyDescent="0.25">
@@ -11868,34 +11823,34 @@
         <v>11</v>
       </c>
       <c r="B277">
-        <v>11151</v>
+        <v>665</v>
       </c>
       <c r="C277" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D277" t="s">
+        <v>435</v>
+      </c>
+      <c r="E277">
+        <v>7</v>
+      </c>
+      <c r="F277">
+        <v>0</v>
+      </c>
+      <c r="G277" t="s">
         <v>436</v>
       </c>
-      <c r="E277">
-        <v>1</v>
-      </c>
-      <c r="F277">
-        <v>0</v>
-      </c>
-      <c r="G277" t="s">
-        <v>361</v>
-      </c>
       <c r="H277" t="s">
         <v>12</v>
       </c>
       <c r="I277">
-        <v>4944</v>
+        <v>2774</v>
       </c>
       <c r="J277" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="K277">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="278" spans="1:11" x14ac:dyDescent="0.25">
@@ -11903,34 +11858,34 @@
         <v>13</v>
       </c>
       <c r="B278">
-        <v>11152</v>
+        <v>666</v>
       </c>
       <c r="C278" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D278" t="s">
         <v>437</v>
       </c>
       <c r="E278">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F278">
         <v>0</v>
       </c>
       <c r="G278" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="H278" t="s">
         <v>12</v>
       </c>
       <c r="I278">
-        <v>4944</v>
+        <v>2774</v>
       </c>
       <c r="J278" t="s">
         <v>437</v>
       </c>
       <c r="K278">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="279" spans="1:11" x14ac:dyDescent="0.25">
@@ -11938,34 +11893,34 @@
         <v>11</v>
       </c>
       <c r="B279">
-        <v>11152</v>
+        <v>666</v>
       </c>
       <c r="C279" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="D279" t="s">
         <v>438</v>
       </c>
       <c r="E279">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F279">
         <v>0</v>
       </c>
       <c r="G279" t="s">
-        <v>361</v>
+        <v>436</v>
       </c>
       <c r="H279" t="s">
         <v>12</v>
       </c>
       <c r="I279">
-        <v>4944</v>
+        <v>2774</v>
       </c>
       <c r="J279" t="s">
         <v>438</v>
       </c>
       <c r="K279">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="280" spans="1:11" x14ac:dyDescent="0.25">
@@ -11973,136 +11928,136 @@
         <v>13</v>
       </c>
       <c r="B280">
-        <v>11211</v>
+        <v>668</v>
       </c>
       <c r="C280" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="D280" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E280">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F280">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G280" t="s">
-        <v>430</v>
+        <v>436</v>
       </c>
       <c r="H280" t="s">
         <v>12</v>
       </c>
       <c r="I280">
-        <v>6546</v>
+        <v>2774</v>
       </c>
       <c r="J280" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="K280">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B281">
-        <v>11212</v>
+        <v>669</v>
       </c>
       <c r="C281" t="s">
-        <v>442</v>
+        <v>432</v>
       </c>
       <c r="D281" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E281">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F281">
         <v>0</v>
       </c>
       <c r="G281" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H281" t="s">
         <v>12</v>
       </c>
       <c r="I281">
-        <v>4921</v>
+        <v>2487</v>
       </c>
       <c r="J281" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="K281">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B282">
-        <v>11212</v>
+        <v>670</v>
       </c>
       <c r="C282" t="s">
+        <v>432</v>
+      </c>
+      <c r="D282" t="s">
         <v>442</v>
       </c>
-      <c r="D282" t="s">
-        <v>444</v>
-      </c>
       <c r="E282">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F282">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G282" t="s">
-        <v>430</v>
+        <v>441</v>
       </c>
       <c r="H282" t="s">
         <v>12</v>
       </c>
       <c r="I282">
-        <v>6546</v>
+        <v>2487</v>
       </c>
       <c r="J282" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="K282">
-        <v>1</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B283">
-        <v>665</v>
+        <v>720</v>
       </c>
       <c r="C283" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D283" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E283">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F283">
         <v>0</v>
       </c>
       <c r="G283" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H283" t="s">
         <v>12</v>
       </c>
       <c r="I283">
-        <v>2768</v>
+        <v>2910</v>
       </c>
       <c r="J283" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="K283">
         <v>-77</v>
@@ -12110,34 +12065,34 @@
     </row>
     <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B284">
-        <v>665</v>
+        <v>721</v>
       </c>
       <c r="C284" t="s">
+        <v>443</v>
+      </c>
+      <c r="D284" t="s">
         <v>446</v>
       </c>
-      <c r="D284" t="s">
-        <v>449</v>
-      </c>
       <c r="E284">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F284">
         <v>0</v>
       </c>
       <c r="G284" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="H284" t="s">
         <v>12</v>
       </c>
       <c r="I284">
-        <v>2774</v>
+        <v>2910</v>
       </c>
       <c r="J284" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="K284">
         <v>-77</v>
@@ -12145,174 +12100,174 @@
     </row>
     <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B285">
-        <v>666</v>
+        <v>721</v>
       </c>
       <c r="C285" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D285" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="E285">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F285">
         <v>0</v>
       </c>
       <c r="G285" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H285" t="s">
         <v>12</v>
       </c>
       <c r="I285">
-        <v>2774</v>
+        <v>2909</v>
       </c>
       <c r="J285" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="K285">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B286">
-        <v>666</v>
+        <v>722</v>
       </c>
       <c r="C286" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D286" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E286">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F286">
         <v>0</v>
       </c>
       <c r="G286" t="s">
+        <v>448</v>
+      </c>
+      <c r="H286" t="s">
+        <v>12</v>
+      </c>
+      <c r="I286">
+        <v>2909</v>
+      </c>
+      <c r="J286" t="s">
         <v>450</v>
       </c>
-      <c r="H286" t="s">
-        <v>12</v>
-      </c>
-      <c r="I286">
-        <v>2774</v>
-      </c>
-      <c r="J286" t="s">
-        <v>452</v>
-      </c>
       <c r="K286">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B287">
-        <v>668</v>
+        <v>722</v>
       </c>
       <c r="C287" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D287" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E287">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F287">
         <v>0</v>
       </c>
       <c r="G287" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="H287" t="s">
         <v>12</v>
       </c>
       <c r="I287">
-        <v>2774</v>
+        <v>2909</v>
       </c>
       <c r="J287" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="K287">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B288">
-        <v>669</v>
+        <v>723</v>
       </c>
       <c r="C288" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D288" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E288">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F288">
         <v>0</v>
       </c>
       <c r="G288" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="H288" t="s">
         <v>12</v>
       </c>
       <c r="I288">
-        <v>2487</v>
+        <v>2909</v>
       </c>
       <c r="J288" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K288">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B289">
-        <v>670</v>
+        <v>723</v>
       </c>
       <c r="C289" t="s">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D289" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E289">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F289">
         <v>0</v>
       </c>
       <c r="G289" t="s">
-        <v>455</v>
+        <v>445</v>
       </c>
       <c r="H289" t="s">
         <v>12</v>
       </c>
       <c r="I289">
-        <v>2487</v>
+        <v>2910</v>
       </c>
       <c r="J289" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="K289">
         <v>-77</v>
@@ -12320,16 +12275,16 @@
     </row>
     <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B290">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="C290" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D290" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E290">
         <v>3</v>
@@ -12338,7 +12293,7 @@
         <v>0</v>
       </c>
       <c r="G290" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="H290" t="s">
         <v>12</v>
@@ -12347,7 +12302,7 @@
         <v>2910</v>
       </c>
       <c r="J290" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="K290">
         <v>-77</v>
@@ -12355,16 +12310,16 @@
     </row>
     <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B291">
-        <v>721</v>
+        <v>724</v>
       </c>
       <c r="C291" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D291" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="E291">
         <v>3</v>
@@ -12373,16 +12328,16 @@
         <v>0</v>
       </c>
       <c r="G291" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H291" t="s">
         <v>12</v>
       </c>
       <c r="I291">
-        <v>2910</v>
+        <v>2916</v>
       </c>
       <c r="J291" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="K291">
         <v>-77</v>
@@ -12390,34 +12345,34 @@
     </row>
     <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B292">
-        <v>721</v>
+        <v>732</v>
       </c>
       <c r="C292" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D292" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E292">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F292">
         <v>0</v>
       </c>
       <c r="G292" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="H292" t="s">
         <v>12</v>
       </c>
       <c r="I292">
-        <v>2909</v>
+        <v>2888</v>
       </c>
       <c r="J292" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="K292">
         <v>0</v>
@@ -12425,34 +12380,34 @@
     </row>
     <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B293">
-        <v>722</v>
+        <v>732</v>
       </c>
       <c r="C293" t="s">
+        <v>458</v>
+      </c>
+      <c r="D293" t="s">
+        <v>460</v>
+      </c>
+      <c r="E293">
+        <v>10</v>
+      </c>
+      <c r="F293">
+        <v>0</v>
+      </c>
+      <c r="G293" t="s">
         <v>463</v>
       </c>
-      <c r="D293" t="s">
-        <v>464</v>
-      </c>
-      <c r="E293">
-        <v>3</v>
-      </c>
-      <c r="F293">
-        <v>0</v>
-      </c>
-      <c r="G293" t="s">
-        <v>462</v>
-      </c>
       <c r="H293" t="s">
         <v>12</v>
       </c>
       <c r="I293">
-        <v>2909</v>
+        <v>2888</v>
       </c>
       <c r="J293" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K293">
         <v>0</v>
@@ -12460,34 +12415,34 @@
     </row>
     <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B294">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="C294" t="s">
+        <v>458</v>
+      </c>
+      <c r="D294" t="s">
+        <v>461</v>
+      </c>
+      <c r="E294">
+        <v>10</v>
+      </c>
+      <c r="F294">
+        <v>0</v>
+      </c>
+      <c r="G294" t="s">
         <v>463</v>
       </c>
-      <c r="D294" t="s">
-        <v>465</v>
-      </c>
-      <c r="E294">
-        <v>3</v>
-      </c>
-      <c r="F294">
-        <v>0</v>
-      </c>
-      <c r="G294" t="s">
-        <v>462</v>
-      </c>
       <c r="H294" t="s">
         <v>12</v>
       </c>
       <c r="I294">
-        <v>2909</v>
+        <v>2888</v>
       </c>
       <c r="J294" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="K294">
         <v>0</v>
@@ -12495,34 +12450,34 @@
     </row>
     <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B295">
-        <v>723</v>
+        <v>717</v>
       </c>
       <c r="C295" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
       <c r="D295" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E295">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F295">
         <v>0</v>
       </c>
       <c r="G295" t="s">
+        <v>463</v>
+      </c>
+      <c r="H295" t="s">
+        <v>12</v>
+      </c>
+      <c r="I295">
+        <v>2888</v>
+      </c>
+      <c r="J295" t="s">
         <v>462</v>
-      </c>
-      <c r="H295" t="s">
-        <v>12</v>
-      </c>
-      <c r="I295">
-        <v>2909</v>
-      </c>
-      <c r="J295" t="s">
-        <v>467</v>
       </c>
       <c r="K295">
         <v>0</v>
@@ -12530,16 +12485,16 @@
     </row>
     <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B296">
-        <v>723</v>
+        <v>725</v>
       </c>
       <c r="C296" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D296" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E296">
         <v>3</v>
@@ -12548,16 +12503,16 @@
         <v>0</v>
       </c>
       <c r="G296" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="H296" t="s">
         <v>12</v>
       </c>
       <c r="I296">
-        <v>2910</v>
+        <v>2916</v>
       </c>
       <c r="J296" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="K296">
         <v>-77</v>
@@ -12565,16 +12520,16 @@
     </row>
     <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B297">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C297" t="s">
+        <v>464</v>
+      </c>
+      <c r="D297" t="s">
         <v>466</v>
-      </c>
-      <c r="D297" t="s">
-        <v>469</v>
       </c>
       <c r="E297">
         <v>3</v>
@@ -12583,33 +12538,33 @@
         <v>0</v>
       </c>
       <c r="G297" t="s">
-        <v>459</v>
+        <v>467</v>
       </c>
       <c r="H297" t="s">
         <v>12</v>
       </c>
       <c r="I297">
-        <v>2910</v>
+        <v>2918</v>
       </c>
       <c r="J297" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="K297">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B298">
-        <v>724</v>
+        <v>726</v>
       </c>
       <c r="C298" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="D298" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="E298">
         <v>3</v>
@@ -12618,16 +12573,16 @@
         <v>0</v>
       </c>
       <c r="G298" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="H298" t="s">
         <v>12</v>
       </c>
       <c r="I298">
-        <v>2916</v>
+        <v>2918</v>
       </c>
       <c r="J298" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="K298">
         <v>-77</v>
@@ -12635,69 +12590,63 @@
     </row>
     <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B299">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="C299" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
       <c r="D299" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="E299">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F299">
         <v>0</v>
       </c>
       <c r="G299" t="s">
-        <v>477</v>
+        <v>457</v>
       </c>
       <c r="H299" t="s">
         <v>12</v>
       </c>
       <c r="I299">
-        <v>2888</v>
+        <v>2916</v>
       </c>
       <c r="J299" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K299">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
-        <v>11</v>
-      </c>
-      <c r="B300">
-        <v>732</v>
-      </c>
-      <c r="C300" t="s">
-        <v>472</v>
+        <v>209</v>
       </c>
       <c r="D300" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="E300">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F300">
         <v>0</v>
       </c>
       <c r="G300" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="H300" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I300">
-        <v>2888</v>
+        <v>142345</v>
       </c>
       <c r="J300" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="K300">
         <v>0</v>
@@ -12705,34 +12654,28 @@
     </row>
     <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
-        <v>13</v>
-      </c>
-      <c r="B301">
-        <v>717</v>
-      </c>
-      <c r="C301" t="s">
+        <v>209</v>
+      </c>
+      <c r="D301" t="s">
         <v>472</v>
       </c>
-      <c r="D301" t="s">
-        <v>475</v>
-      </c>
       <c r="E301">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F301">
         <v>0</v>
       </c>
       <c r="G301" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="H301" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I301">
-        <v>2888</v>
+        <v>142475</v>
       </c>
       <c r="J301" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="K301">
         <v>0</v>
@@ -12740,34 +12683,28 @@
     </row>
     <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
-        <v>11</v>
-      </c>
-      <c r="B302">
-        <v>717</v>
-      </c>
-      <c r="C302" t="s">
-        <v>472</v>
+        <v>209</v>
       </c>
       <c r="D302" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="E302">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F302">
         <v>0</v>
       </c>
       <c r="G302" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="H302" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I302">
-        <v>2888</v>
+        <v>142476</v>
       </c>
       <c r="J302" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="K302">
         <v>0</v>
@@ -12775,51 +12712,45 @@
     </row>
     <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
-        <v>13</v>
-      </c>
-      <c r="B303">
-        <v>725</v>
-      </c>
-      <c r="C303" t="s">
-        <v>478</v>
+        <v>209</v>
       </c>
       <c r="D303" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E303">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="F303">
         <v>0</v>
       </c>
       <c r="G303" t="s">
-        <v>471</v>
+        <v>476</v>
       </c>
       <c r="H303" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I303">
-        <v>2916</v>
+        <v>142696</v>
       </c>
       <c r="J303" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="K303">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B304">
-        <v>725</v>
+        <v>194</v>
       </c>
       <c r="C304" t="s">
         <v>478</v>
       </c>
       <c r="D304" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E304">
         <v>3</v>
@@ -12828,33 +12759,33 @@
         <v>0</v>
       </c>
       <c r="G304" t="s">
-        <v>481</v>
+        <v>504</v>
       </c>
       <c r="H304" t="s">
         <v>12</v>
       </c>
       <c r="I304">
-        <v>2918</v>
+        <v>715</v>
       </c>
       <c r="J304" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K304">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B305">
-        <v>726</v>
+        <v>194</v>
       </c>
       <c r="C305" t="s">
         <v>478</v>
       </c>
       <c r="D305" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E305">
         <v>3</v>
@@ -12863,33 +12794,33 @@
         <v>0</v>
       </c>
       <c r="G305" t="s">
+        <v>504</v>
+      </c>
+      <c r="H305" t="s">
+        <v>12</v>
+      </c>
+      <c r="I305">
+        <v>715</v>
+      </c>
+      <c r="J305" t="s">
         <v>481</v>
       </c>
-      <c r="H305" t="s">
-        <v>12</v>
-      </c>
-      <c r="I305">
-        <v>2918</v>
-      </c>
-      <c r="J305" t="s">
-        <v>482</v>
-      </c>
       <c r="K305">
-        <v>-77</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B306">
-        <v>726</v>
+        <v>194</v>
       </c>
       <c r="C306" t="s">
         <v>478</v>
       </c>
       <c r="D306" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E306">
         <v>3</v>
@@ -12898,149 +12829,173 @@
         <v>0</v>
       </c>
       <c r="G306" t="s">
-        <v>471</v>
+        <v>504</v>
       </c>
       <c r="H306" t="s">
         <v>12</v>
       </c>
       <c r="I306">
-        <v>2916</v>
+        <v>715</v>
       </c>
       <c r="J306" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="K306">
-        <v>-77</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B307">
+        <v>195</v>
+      </c>
+      <c r="C307" t="s">
+        <v>478</v>
       </c>
       <c r="D307" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E307">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F307">
         <v>0</v>
       </c>
       <c r="G307" t="s">
-        <v>485</v>
+        <v>504</v>
       </c>
       <c r="H307" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I307">
-        <v>142345</v>
+        <v>715</v>
       </c>
       <c r="J307" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="K307">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
-        <v>209</v>
+        <v>11</v>
+      </c>
+      <c r="B308">
+        <v>195</v>
+      </c>
+      <c r="C308" t="s">
+        <v>478</v>
       </c>
       <c r="D308" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E308">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F308">
         <v>0</v>
       </c>
       <c r="G308" t="s">
-        <v>487</v>
+        <v>504</v>
       </c>
       <c r="H308" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I308">
-        <v>142475</v>
+        <v>715</v>
       </c>
       <c r="J308" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="K308">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
-        <v>209</v>
+        <v>61</v>
+      </c>
+      <c r="B309">
+        <v>195</v>
+      </c>
+      <c r="C309" t="s">
+        <v>478</v>
       </c>
       <c r="D309" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E309">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F309">
         <v>0</v>
       </c>
       <c r="G309" t="s">
-        <v>489</v>
+        <v>504</v>
       </c>
       <c r="H309" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I309">
-        <v>142476</v>
+        <v>715</v>
       </c>
       <c r="J309" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="K309">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B310">
+        <v>196</v>
+      </c>
+      <c r="C310" t="s">
+        <v>478</v>
       </c>
       <c r="D310" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="E310">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="F310">
         <v>0</v>
       </c>
       <c r="G310" t="s">
-        <v>490</v>
+        <v>504</v>
       </c>
       <c r="H310" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I310">
-        <v>142696</v>
+        <v>715</v>
       </c>
       <c r="J310" t="s">
-        <v>491</v>
+        <v>486</v>
       </c>
       <c r="K310">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B311">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C311" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D311" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="E311">
         <v>3</v>
@@ -13049,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="G311" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H311" t="s">
         <v>12</v>
@@ -13058,7 +13013,7 @@
         <v>715</v>
       </c>
       <c r="J311" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="K311">
         <v>-88</v>
@@ -13066,16 +13021,16 @@
     </row>
     <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B312">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C312" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D312" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="E312">
         <v>3</v>
@@ -13084,7 +13039,7 @@
         <v>0</v>
       </c>
       <c r="G312" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H312" t="s">
         <v>12</v>
@@ -13093,7 +13048,7 @@
         <v>715</v>
       </c>
       <c r="J312" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K312">
         <v>-88</v>
@@ -13101,16 +13056,16 @@
     </row>
     <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B313">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C313" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D313" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="E313">
         <v>3</v>
@@ -13119,7 +13074,7 @@
         <v>0</v>
       </c>
       <c r="G313" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H313" t="s">
         <v>12</v>
@@ -13128,7 +13083,7 @@
         <v>715</v>
       </c>
       <c r="J313" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K313">
         <v>-88</v>
@@ -13136,16 +13091,16 @@
     </row>
     <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B314">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C314" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D314" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="E314">
         <v>3</v>
@@ -13154,7 +13109,7 @@
         <v>0</v>
       </c>
       <c r="G314" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H314" t="s">
         <v>12</v>
@@ -13163,7 +13118,7 @@
         <v>715</v>
       </c>
       <c r="J314" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K314">
         <v>-88</v>
@@ -13171,16 +13126,16 @@
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B315">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C315" t="s">
-        <v>492</v>
+        <v>478</v>
       </c>
       <c r="D315" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="E315">
         <v>3</v>
@@ -13189,7 +13144,7 @@
         <v>0</v>
       </c>
       <c r="G315" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H315" t="s">
         <v>12</v>
@@ -13198,7 +13153,7 @@
         <v>715</v>
       </c>
       <c r="J315" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
       <c r="K315">
         <v>-88</v>
@@ -13206,16 +13161,16 @@
     </row>
     <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B316">
-        <v>195</v>
+        <v>208</v>
       </c>
       <c r="C316" t="s">
         <v>492</v>
       </c>
       <c r="D316" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="E316">
         <v>3</v>
@@ -13224,7 +13179,7 @@
         <v>0</v>
       </c>
       <c r="G316" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H316" t="s">
         <v>12</v>
@@ -13233,7 +13188,7 @@
         <v>715</v>
       </c>
       <c r="J316" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="K316">
         <v>-88</v>
@@ -13241,16 +13196,16 @@
     </row>
     <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B317">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C317" t="s">
         <v>492</v>
       </c>
       <c r="D317" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="E317">
         <v>3</v>
@@ -13259,7 +13214,7 @@
         <v>0</v>
       </c>
       <c r="G317" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H317" t="s">
         <v>12</v>
@@ -13268,7 +13223,7 @@
         <v>715</v>
       </c>
       <c r="J317" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="K317">
         <v>-88</v>
@@ -13276,16 +13231,16 @@
     </row>
     <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B318">
-        <v>196</v>
+        <v>208</v>
       </c>
       <c r="C318" t="s">
         <v>492</v>
       </c>
       <c r="D318" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="E318">
         <v>3</v>
@@ -13294,7 +13249,7 @@
         <v>0</v>
       </c>
       <c r="G318" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H318" t="s">
         <v>12</v>
@@ -13303,7 +13258,7 @@
         <v>715</v>
       </c>
       <c r="J318" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="K318">
         <v>-88</v>
@@ -13311,16 +13266,16 @@
     </row>
     <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B319">
-        <v>196</v>
+        <v>583</v>
       </c>
       <c r="C319" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="D319" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="E319">
         <v>3</v>
@@ -13329,7 +13284,7 @@
         <v>0</v>
       </c>
       <c r="G319" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H319" t="s">
         <v>12</v>
@@ -13338,7 +13293,7 @@
         <v>715</v>
       </c>
       <c r="J319" t="s">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="K319">
         <v>-88</v>
@@ -13346,16 +13301,16 @@
     </row>
     <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B320">
-        <v>197</v>
+        <v>5762</v>
       </c>
       <c r="C320" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D320" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="E320">
         <v>3</v>
@@ -13364,7 +13319,7 @@
         <v>0</v>
       </c>
       <c r="G320" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H320" t="s">
         <v>12</v>
@@ -13373,7 +13328,7 @@
         <v>715</v>
       </c>
       <c r="J320" t="s">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="K320">
         <v>-88</v>
@@ -13381,16 +13336,16 @@
     </row>
     <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
-        <v>11</v>
+        <v>61</v>
       </c>
       <c r="B321">
-        <v>197</v>
+        <v>5762</v>
       </c>
       <c r="C321" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="D321" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="E321">
         <v>3</v>
@@ -13399,7 +13354,7 @@
         <v>0</v>
       </c>
       <c r="G321" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H321" t="s">
         <v>12</v>
@@ -13408,7 +13363,7 @@
         <v>715</v>
       </c>
       <c r="J321" t="s">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="K321">
         <v>-88</v>
@@ -13416,16 +13371,16 @@
     </row>
     <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B322">
-        <v>197</v>
+        <v>5763</v>
       </c>
       <c r="C322" t="s">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="D322" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="E322">
         <v>3</v>
@@ -13434,7 +13389,7 @@
         <v>0</v>
       </c>
       <c r="G322" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H322" t="s">
         <v>12</v>
@@ -13443,7 +13398,7 @@
         <v>715</v>
       </c>
       <c r="J322" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="K322">
         <v>-88</v>
@@ -13451,16 +13406,16 @@
     </row>
     <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B323">
-        <v>208</v>
+        <v>5763</v>
       </c>
       <c r="C323" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="D323" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="E323">
         <v>3</v>
@@ -13469,7 +13424,7 @@
         <v>0</v>
       </c>
       <c r="G323" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H323" t="s">
         <v>12</v>
@@ -13478,7 +13433,7 @@
         <v>715</v>
       </c>
       <c r="J323" t="s">
-        <v>507</v>
+        <v>502</v>
       </c>
       <c r="K323">
         <v>-88</v>
@@ -13486,16 +13441,10 @@
     </row>
     <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
-        <v>11</v>
-      </c>
-      <c r="B324">
-        <v>208</v>
-      </c>
-      <c r="C324" t="s">
-        <v>506</v>
+        <v>209</v>
       </c>
       <c r="D324" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="E324">
         <v>3</v>
@@ -13504,7 +13453,7 @@
         <v>0</v>
       </c>
       <c r="G324" t="s">
-        <v>518</v>
+        <v>504</v>
       </c>
       <c r="H324" t="s">
         <v>12</v>
@@ -13513,7 +13462,7 @@
         <v>715</v>
       </c>
       <c r="J324" t="s">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="K324">
         <v>-88</v>
@@ -13521,37 +13470,37 @@
     </row>
     <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="B325">
-        <v>208</v>
+        <v>595</v>
       </c>
       <c r="C325" t="s">
+        <v>505</v>
+      </c>
+      <c r="D325" t="s">
         <v>506</v>
       </c>
-      <c r="D325" t="s">
-        <v>509</v>
-      </c>
       <c r="E325">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F325">
         <v>0</v>
       </c>
       <c r="G325" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H325" t="s">
         <v>12</v>
       </c>
       <c r="I325">
-        <v>715</v>
+        <v>2490</v>
       </c>
       <c r="J325" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="K325">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="326" spans="1:11" x14ac:dyDescent="0.25">
@@ -13559,235 +13508,241 @@
         <v>11</v>
       </c>
       <c r="B326">
-        <v>583</v>
+        <v>597</v>
       </c>
       <c r="C326" t="s">
-        <v>510</v>
+        <v>505</v>
       </c>
       <c r="D326" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E326">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F326">
         <v>0</v>
       </c>
       <c r="G326" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H326" t="s">
         <v>12</v>
       </c>
       <c r="I326">
-        <v>715</v>
+        <v>2490</v>
       </c>
       <c r="J326" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="K326">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B327">
-        <v>5762</v>
+        <v>599</v>
       </c>
       <c r="C327" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D327" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E327">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="F327">
         <v>0</v>
       </c>
       <c r="G327" t="s">
-        <v>518</v>
+        <v>507</v>
       </c>
       <c r="H327" t="s">
         <v>12</v>
       </c>
       <c r="I327">
-        <v>715</v>
+        <v>2490</v>
       </c>
       <c r="J327" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="K327">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B328">
-        <v>5762</v>
+        <v>599</v>
       </c>
       <c r="C328" t="s">
-        <v>494</v>
+        <v>505</v>
       </c>
       <c r="D328" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E328">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F328">
         <v>0</v>
       </c>
       <c r="G328" t="s">
-        <v>518</v>
+        <v>441</v>
       </c>
       <c r="H328" t="s">
         <v>12</v>
       </c>
       <c r="I328">
-        <v>715</v>
+        <v>2487</v>
       </c>
       <c r="J328" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="K328">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B329">
-        <v>5763</v>
+        <v>604</v>
       </c>
       <c r="C329" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D329" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="E329">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F329">
         <v>0</v>
       </c>
       <c r="G329" t="s">
-        <v>518</v>
+        <v>441</v>
       </c>
       <c r="H329" t="s">
         <v>12</v>
       </c>
       <c r="I329">
-        <v>715</v>
+        <v>2487</v>
       </c>
       <c r="J329" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="K329">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
-        <v>61</v>
+        <v>11</v>
       </c>
       <c r="B330">
-        <v>5763</v>
+        <v>604</v>
       </c>
       <c r="C330" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="D330" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="E330">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F330">
         <v>0</v>
       </c>
       <c r="G330" t="s">
-        <v>518</v>
+        <v>441</v>
       </c>
       <c r="H330" t="s">
         <v>12</v>
       </c>
       <c r="I330">
-        <v>715</v>
+        <v>2487</v>
       </c>
       <c r="J330" t="s">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="K330">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B331">
+        <v>608</v>
+      </c>
+      <c r="C331" t="s">
+        <v>505</v>
       </c>
       <c r="D331" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="E331">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F331">
         <v>0</v>
       </c>
       <c r="G331" t="s">
-        <v>518</v>
+        <v>441</v>
       </c>
       <c r="H331" t="s">
         <v>12</v>
       </c>
       <c r="I331">
-        <v>715</v>
+        <v>2487</v>
       </c>
       <c r="J331" t="s">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="K331">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B332">
-        <v>595</v>
+        <v>608</v>
       </c>
       <c r="C332" t="s">
-        <v>519</v>
+        <v>505</v>
       </c>
       <c r="D332" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="E332">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F332">
         <v>0</v>
       </c>
       <c r="G332" t="s">
-        <v>521</v>
+        <v>441</v>
       </c>
       <c r="H332" t="s">
         <v>12</v>
       </c>
       <c r="I332">
-        <v>2490</v>
+        <v>2487</v>
       </c>
       <c r="J332" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="K332">
         <v>-77</v>
@@ -13798,31 +13753,31 @@
         <v>11</v>
       </c>
       <c r="B333">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="C333" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D333" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="E333">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F333">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G333" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H333" t="s">
         <v>12</v>
       </c>
       <c r="I333">
-        <v>2490</v>
+        <v>2634</v>
       </c>
       <c r="J333" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="K333">
         <v>-77</v>
@@ -13833,31 +13788,31 @@
         <v>13</v>
       </c>
       <c r="B334">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="C334" t="s">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="D334" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="E334">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="F334">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G334" t="s">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="H334" t="s">
         <v>12</v>
       </c>
       <c r="I334">
-        <v>2490</v>
+        <v>2634</v>
       </c>
       <c r="J334" t="s">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="K334">
         <v>-77</v>
@@ -13868,31 +13823,31 @@
         <v>11</v>
       </c>
       <c r="B335">
-        <v>599</v>
+        <v>630</v>
       </c>
       <c r="C335" t="s">
+        <v>515</v>
+      </c>
+      <c r="D335" t="s">
         <v>519</v>
-      </c>
-      <c r="D335" t="s">
-        <v>524</v>
       </c>
       <c r="E335">
         <v>6</v>
       </c>
       <c r="F335">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G335" t="s">
-        <v>455</v>
+        <v>517</v>
       </c>
       <c r="H335" t="s">
         <v>12</v>
       </c>
       <c r="I335">
-        <v>2487</v>
+        <v>2634</v>
       </c>
       <c r="J335" t="s">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="K335">
         <v>-77</v>
@@ -13903,34 +13858,34 @@
         <v>13</v>
       </c>
       <c r="B336">
-        <v>604</v>
+        <v>1389</v>
       </c>
       <c r="C336" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D336" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="E336">
-        <v>6</v>
+        <v>-77</v>
       </c>
       <c r="F336">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="G336" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="H336" t="s">
         <v>12</v>
       </c>
       <c r="I336">
-        <v>2487</v>
+        <v>1776</v>
       </c>
       <c r="J336" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="K336">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337" spans="1:11" x14ac:dyDescent="0.25">
@@ -13938,159 +13893,153 @@
         <v>11</v>
       </c>
       <c r="B337">
-        <v>604</v>
+        <v>1389</v>
       </c>
       <c r="C337" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="D337" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="E337">
-        <v>6</v>
+        <v>-77</v>
       </c>
       <c r="F337">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="G337" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="H337" t="s">
         <v>12</v>
       </c>
       <c r="I337">
-        <v>2487</v>
+        <v>1776</v>
       </c>
       <c r="J337" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="K337">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B338">
-        <v>608</v>
+        <v>1392</v>
       </c>
       <c r="C338" t="s">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="D338" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E338">
-        <v>6</v>
+        <v>-77</v>
       </c>
       <c r="F338">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="G338" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="H338" t="s">
         <v>12</v>
       </c>
       <c r="I338">
-        <v>2487</v>
+        <v>1776</v>
       </c>
       <c r="J338" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="K338">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
-        <v>11</v>
-      </c>
-      <c r="B339">
-        <v>608</v>
-      </c>
-      <c r="C339" t="s">
-        <v>519</v>
+        <v>209</v>
       </c>
       <c r="D339" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="E339">
-        <v>6</v>
+        <v>-77</v>
       </c>
       <c r="F339">
-        <v>0</v>
+        <v>-77</v>
       </c>
       <c r="G339" t="s">
-        <v>455</v>
+        <v>520</v>
       </c>
       <c r="H339" t="s">
         <v>12</v>
       </c>
       <c r="I339">
-        <v>2487</v>
+        <v>1776</v>
       </c>
       <c r="J339" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="K339">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B340">
-        <v>594</v>
+        <v>1392</v>
       </c>
       <c r="C340" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="D340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="E340">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="F340">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G340" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="H340" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="I340">
-        <v>2634</v>
+        <v>6196</v>
       </c>
       <c r="J340" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="K340">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B341">
-        <v>630</v>
+        <v>819</v>
       </c>
       <c r="C341" t="s">
         <v>529</v>
       </c>
       <c r="D341" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="E341">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F341">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G341" t="s">
         <v>531</v>
@@ -14099,10 +14048,10 @@
         <v>12</v>
       </c>
       <c r="I341">
-        <v>2634</v>
+        <v>3292</v>
       </c>
       <c r="J341" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="K341">
         <v>-77</v>
@@ -14110,22 +14059,22 @@
     </row>
     <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B342">
-        <v>630</v>
+        <v>821</v>
       </c>
       <c r="C342" t="s">
         <v>529</v>
       </c>
       <c r="D342" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="E342">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="F342">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G342" t="s">
         <v>531</v>
@@ -14134,10 +14083,10 @@
         <v>12</v>
       </c>
       <c r="I342">
-        <v>2634</v>
+        <v>3292</v>
       </c>
       <c r="J342" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="K342">
         <v>-77</v>
@@ -14145,72 +14094,72 @@
     </row>
     <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B343">
-        <v>1389</v>
+        <v>821</v>
       </c>
       <c r="C343" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D343" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E343">
-        <v>-77</v>
+        <v>2</v>
       </c>
       <c r="F343">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="G343" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H343" t="s">
         <v>12</v>
       </c>
       <c r="I343">
-        <v>1776</v>
+        <v>3292</v>
       </c>
       <c r="J343" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="K343">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B344">
-        <v>1389</v>
+        <v>822</v>
       </c>
       <c r="C344" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="D344" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E344">
-        <v>-77</v>
+        <v>2</v>
       </c>
       <c r="F344">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="G344" t="s">
+        <v>531</v>
+      </c>
+      <c r="H344" t="s">
+        <v>12</v>
+      </c>
+      <c r="I344">
+        <v>3292</v>
+      </c>
+      <c r="J344" t="s">
         <v>534</v>
       </c>
-      <c r="H344" t="s">
-        <v>12</v>
-      </c>
-      <c r="I344">
-        <v>1776</v>
-      </c>
-      <c r="J344" t="s">
-        <v>537</v>
-      </c>
       <c r="K344">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="345" spans="1:11" x14ac:dyDescent="0.25">
@@ -14218,60 +14167,66 @@
         <v>11</v>
       </c>
       <c r="B345">
-        <v>1392</v>
+        <v>822</v>
       </c>
       <c r="C345" t="s">
-        <v>539</v>
+        <v>529</v>
       </c>
       <c r="D345" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="E345">
-        <v>-77</v>
+        <v>2</v>
       </c>
       <c r="F345">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="G345" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="H345" t="s">
         <v>12</v>
       </c>
       <c r="I345">
-        <v>1776</v>
+        <v>3292</v>
       </c>
       <c r="J345" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="K345">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B346">
+        <v>891</v>
+      </c>
+      <c r="C346" t="s">
+        <v>536</v>
       </c>
       <c r="D346" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="E346">
-        <v>-77</v>
+        <v>10</v>
       </c>
       <c r="F346">
-        <v>-77</v>
+        <v>0</v>
       </c>
       <c r="G346" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="H346" t="s">
         <v>12</v>
       </c>
       <c r="I346">
-        <v>1776</v>
+        <v>3339</v>
       </c>
       <c r="J346" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="K346">
         <v>0</v>
@@ -14279,34 +14234,34 @@
     </row>
     <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B347">
-        <v>1392</v>
+        <v>891</v>
       </c>
       <c r="C347" t="s">
+        <v>536</v>
+      </c>
+      <c r="D347" t="s">
         <v>539</v>
       </c>
-      <c r="D347" t="s">
-        <v>542</v>
-      </c>
       <c r="E347">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F347">
         <v>0</v>
       </c>
       <c r="G347" t="s">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="H347" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="I347">
-        <v>6196</v>
+        <v>3339</v>
       </c>
       <c r="J347" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="K347">
         <v>0</v>
@@ -14314,72 +14269,72 @@
     </row>
     <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B348">
-        <v>819</v>
+        <v>898</v>
       </c>
       <c r="C348" t="s">
         <v>543</v>
       </c>
       <c r="D348" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="E348">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F348">
         <v>0</v>
       </c>
       <c r="G348" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H348" t="s">
         <v>12</v>
       </c>
       <c r="I348">
-        <v>3292</v>
+        <v>3465</v>
       </c>
       <c r="J348" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="K348">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B349">
-        <v>821</v>
+        <v>898</v>
       </c>
       <c r="C349" t="s">
         <v>543</v>
       </c>
       <c r="D349" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="E349">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="F349">
         <v>0</v>
       </c>
       <c r="G349" t="s">
-        <v>545</v>
+        <v>540</v>
       </c>
       <c r="H349" t="s">
         <v>12</v>
       </c>
       <c r="I349">
-        <v>3292</v>
+        <v>3465</v>
       </c>
       <c r="J349" t="s">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="K349">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:11" x14ac:dyDescent="0.25">
@@ -14387,13 +14342,13 @@
         <v>11</v>
       </c>
       <c r="B350">
-        <v>821</v>
+        <v>906</v>
       </c>
       <c r="C350" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D350" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="E350">
         <v>2</v>
@@ -14402,16 +14357,16 @@
         <v>0</v>
       </c>
       <c r="G350" t="s">
+        <v>546</v>
+      </c>
+      <c r="H350" t="s">
+        <v>12</v>
+      </c>
+      <c r="I350">
+        <v>3429</v>
+      </c>
+      <c r="J350" t="s">
         <v>545</v>
-      </c>
-      <c r="H350" t="s">
-        <v>12</v>
-      </c>
-      <c r="I350">
-        <v>3292</v>
-      </c>
-      <c r="J350" t="s">
-        <v>547</v>
       </c>
       <c r="K350">
         <v>-77</v>
@@ -14422,28 +14377,28 @@
         <v>13</v>
       </c>
       <c r="B351">
-        <v>822</v>
+        <v>749</v>
       </c>
       <c r="C351" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D351" t="s">
         <v>548</v>
       </c>
       <c r="E351">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F351">
         <v>0</v>
       </c>
       <c r="G351" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="H351" t="s">
         <v>12</v>
       </c>
       <c r="I351">
-        <v>3292</v>
+        <v>2988</v>
       </c>
       <c r="J351" t="s">
         <v>548</v>
@@ -14457,31 +14412,31 @@
         <v>11</v>
       </c>
       <c r="B352">
-        <v>822</v>
+        <v>751</v>
       </c>
       <c r="C352" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="D352" t="s">
+        <v>550</v>
+      </c>
+      <c r="E352">
+        <v>6</v>
+      </c>
+      <c r="F352">
+        <v>0</v>
+      </c>
+      <c r="G352" t="s">
         <v>549</v>
       </c>
-      <c r="E352">
-        <v>2</v>
-      </c>
-      <c r="F352">
-        <v>0</v>
-      </c>
-      <c r="G352" t="s">
-        <v>545</v>
-      </c>
       <c r="H352" t="s">
         <v>12</v>
       </c>
       <c r="I352">
-        <v>3292</v>
+        <v>2988</v>
       </c>
       <c r="J352" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="K352">
         <v>-77</v>
@@ -14489,72 +14444,72 @@
     </row>
     <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B353">
-        <v>891</v>
+        <v>749</v>
       </c>
       <c r="C353" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D353" t="s">
+        <v>551</v>
+      </c>
+      <c r="E353">
+        <v>-1</v>
+      </c>
+      <c r="F353">
+        <v>0</v>
+      </c>
+      <c r="G353" t="s">
         <v>552</v>
       </c>
-      <c r="E353">
-        <v>10</v>
-      </c>
-      <c r="F353">
-        <v>0</v>
-      </c>
-      <c r="G353" t="s">
+      <c r="H353" t="s">
+        <v>27</v>
+      </c>
+      <c r="I353">
+        <v>2908</v>
+      </c>
+      <c r="J353" t="s">
         <v>551</v>
       </c>
-      <c r="H353" t="s">
-        <v>12</v>
-      </c>
-      <c r="I353">
-        <v>3339</v>
-      </c>
-      <c r="J353" t="s">
-        <v>552</v>
-      </c>
       <c r="K353">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B354">
-        <v>891</v>
+        <v>751</v>
       </c>
       <c r="C354" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D354" t="s">
         <v>553</v>
       </c>
       <c r="E354">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="F354">
         <v>0</v>
       </c>
       <c r="G354" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="H354" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="I354">
-        <v>3339</v>
+        <v>2908</v>
       </c>
       <c r="J354" t="s">
         <v>553</v>
       </c>
       <c r="K354">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="355" spans="1:11" x14ac:dyDescent="0.25">
@@ -14562,34 +14517,34 @@
         <v>13</v>
       </c>
       <c r="B355">
-        <v>898</v>
+        <v>894</v>
       </c>
       <c r="C355" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="D355" t="s">
         <v>555</v>
       </c>
       <c r="E355">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F355">
         <v>0</v>
       </c>
       <c r="G355" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="H355" t="s">
         <v>12</v>
       </c>
       <c r="I355">
-        <v>3465</v>
+        <v>3442</v>
       </c>
       <c r="J355" t="s">
         <v>555</v>
       </c>
       <c r="K355">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="356" spans="1:11" x14ac:dyDescent="0.25">
@@ -14597,104 +14552,92 @@
         <v>11</v>
       </c>
       <c r="B356">
-        <v>898</v>
+        <v>902</v>
       </c>
       <c r="C356" t="s">
+        <v>554</v>
+      </c>
+      <c r="D356" t="s">
         <v>557</v>
       </c>
-      <c r="D356" t="s">
+      <c r="E356">
+        <v>9</v>
+      </c>
+      <c r="F356">
+        <v>0</v>
+      </c>
+      <c r="G356" t="s">
         <v>556</v>
       </c>
-      <c r="E356">
-        <v>10</v>
-      </c>
-      <c r="F356">
-        <v>0</v>
-      </c>
-      <c r="G356" t="s">
-        <v>554</v>
-      </c>
       <c r="H356" t="s">
         <v>12</v>
       </c>
       <c r="I356">
-        <v>3465</v>
+        <v>3442</v>
       </c>
       <c r="J356" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="K356">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
-        <v>11</v>
-      </c>
-      <c r="B357">
-        <v>906</v>
-      </c>
-      <c r="C357" t="s">
-        <v>558</v>
+        <v>209</v>
       </c>
       <c r="D357" t="s">
+        <v>564</v>
+      </c>
+      <c r="E357">
+        <v>10</v>
+      </c>
+      <c r="F357">
+        <v>0</v>
+      </c>
+      <c r="G357" t="s">
         <v>559</v>
       </c>
-      <c r="E357">
-        <v>2</v>
-      </c>
-      <c r="F357">
-        <v>0</v>
-      </c>
-      <c r="G357" t="s">
-        <v>560</v>
-      </c>
       <c r="H357" t="s">
         <v>12</v>
       </c>
       <c r="I357">
-        <v>3429</v>
+        <v>5353</v>
       </c>
       <c r="J357" t="s">
-        <v>559</v>
+        <v>564</v>
       </c>
       <c r="K357">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
-        <v>13</v>
-      </c>
-      <c r="B358">
-        <v>749</v>
-      </c>
-      <c r="C358" t="s">
-        <v>561</v>
+        <v>209</v>
       </c>
       <c r="D358" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="E358">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F358">
         <v>0</v>
       </c>
       <c r="G358" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H358" t="s">
         <v>12</v>
       </c>
       <c r="I358">
-        <v>2988</v>
+        <v>5353</v>
       </c>
       <c r="J358" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="K358">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:11" x14ac:dyDescent="0.25">
@@ -14702,69 +14645,69 @@
         <v>11</v>
       </c>
       <c r="B359">
-        <v>751</v>
+        <v>3374</v>
       </c>
       <c r="C359" t="s">
+        <v>560</v>
+      </c>
+      <c r="D359" t="s">
         <v>561</v>
       </c>
-      <c r="D359" t="s">
-        <v>564</v>
-      </c>
       <c r="E359">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F359">
         <v>0</v>
       </c>
       <c r="G359" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="H359" t="s">
         <v>12</v>
       </c>
       <c r="I359">
-        <v>2988</v>
+        <v>5353</v>
       </c>
       <c r="J359" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="K359">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B360">
-        <v>749</v>
+        <v>3512</v>
       </c>
       <c r="C360" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D360" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E360">
-        <v>-1</v>
+        <v>10</v>
       </c>
       <c r="F360">
         <v>0</v>
       </c>
       <c r="G360" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="H360" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
       <c r="I360">
-        <v>2908</v>
+        <v>5353</v>
       </c>
       <c r="J360" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="K360">
-        <v>-77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:11" x14ac:dyDescent="0.25">
@@ -14772,34 +14715,34 @@
         <v>13</v>
       </c>
       <c r="B361">
-        <v>751</v>
+        <v>2861</v>
       </c>
       <c r="C361" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="D361" t="s">
+        <v>566</v>
+      </c>
+      <c r="E361">
+        <v>5</v>
+      </c>
+      <c r="F361">
+        <v>1</v>
+      </c>
+      <c r="G361" t="s">
         <v>567</v>
       </c>
-      <c r="E361">
-        <v>-1</v>
-      </c>
-      <c r="F361">
-        <v>0</v>
-      </c>
-      <c r="G361" t="s">
+      <c r="H361" t="s">
+        <v>12</v>
+      </c>
+      <c r="I361">
+        <v>3048</v>
+      </c>
+      <c r="J361" t="s">
         <v>566</v>
       </c>
-      <c r="H361" t="s">
-        <v>27</v>
-      </c>
-      <c r="I361">
-        <v>2908</v>
-      </c>
-      <c r="J361" t="s">
-        <v>567</v>
-      </c>
       <c r="K361">
-        <v>-77</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="362" spans="1:11" x14ac:dyDescent="0.25">
@@ -14807,127 +14750,139 @@
         <v>13</v>
       </c>
       <c r="B362">
-        <v>894</v>
+        <v>2861</v>
       </c>
       <c r="C362" t="s">
+        <v>565</v>
+      </c>
+      <c r="D362" t="s">
+        <v>566</v>
+      </c>
+      <c r="E362">
+        <v>5</v>
+      </c>
+      <c r="F362">
+        <v>1</v>
+      </c>
+      <c r="G362" t="s">
         <v>568</v>
       </c>
-      <c r="D362" t="s">
-        <v>569</v>
-      </c>
-      <c r="E362">
-        <v>9</v>
-      </c>
-      <c r="F362">
-        <v>0</v>
-      </c>
-      <c r="G362" t="s">
-        <v>570</v>
-      </c>
       <c r="H362" t="s">
         <v>12</v>
       </c>
       <c r="I362">
-        <v>3442</v>
+        <v>4568</v>
       </c>
       <c r="J362" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="K362">
-        <v>-77</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B363">
-        <v>902</v>
+        <v>2861</v>
       </c>
       <c r="C363" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D363" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="E363">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F363">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G363" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="H363" t="s">
         <v>12</v>
       </c>
       <c r="I363">
-        <v>3442</v>
+        <v>5144</v>
       </c>
       <c r="J363" t="s">
-        <v>571</v>
+        <v>566</v>
       </c>
       <c r="K363">
-        <v>-77</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B364">
+        <v>2861</v>
+      </c>
+      <c r="C364" t="s">
+        <v>565</v>
       </c>
       <c r="D364" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="E364">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="F364">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G364" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="H364" t="s">
         <v>12</v>
       </c>
       <c r="I364">
-        <v>5353</v>
+        <v>5497</v>
       </c>
       <c r="J364" t="s">
-        <v>578</v>
+        <v>566</v>
       </c>
       <c r="K364">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
-        <v>209</v>
+        <v>13</v>
+      </c>
+      <c r="B365">
+        <v>2861</v>
+      </c>
+      <c r="C365" t="s">
+        <v>565</v>
       </c>
       <c r="D365" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="E365">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F365">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G365" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="H365" t="s">
         <v>12</v>
       </c>
       <c r="I365">
-        <v>5353</v>
+        <v>5885</v>
       </c>
       <c r="J365" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="K365">
-        <v>0</v>
+        <v>-88</v>
       </c>
     </row>
     <row r="366" spans="1:11" x14ac:dyDescent="0.25">
@@ -14935,31 +14890,31 @@
         <v>11</v>
       </c>
       <c r="B366">
-        <v>3374</v>
+        <v>6610</v>
       </c>
       <c r="C366" t="s">
+        <v>572</v>
+      </c>
+      <c r="D366" t="s">
+        <v>573</v>
+      </c>
+      <c r="E366">
+        <v>9</v>
+      </c>
+      <c r="F366">
+        <v>0</v>
+      </c>
+      <c r="G366" t="s">
         <v>574</v>
       </c>
-      <c r="D366" t="s">
-        <v>575</v>
-      </c>
-      <c r="E366">
-        <v>10</v>
-      </c>
-      <c r="F366">
-        <v>0</v>
-      </c>
-      <c r="G366" t="s">
+      <c r="H366" t="s">
+        <v>12</v>
+      </c>
+      <c r="I366">
+        <v>8125</v>
+      </c>
+      <c r="J366" t="s">
         <v>573</v>
-      </c>
-      <c r="H366" t="s">
-        <v>12</v>
-      </c>
-      <c r="I366">
-        <v>5353</v>
-      </c>
-      <c r="J366" t="s">
-        <v>575</v>
       </c>
       <c r="K366">
         <v>0</v>
@@ -14970,69 +14925,69 @@
         <v>13</v>
       </c>
       <c r="B367">
-        <v>3512</v>
+        <v>3367</v>
       </c>
       <c r="C367" t="s">
+        <v>575</v>
+      </c>
+      <c r="D367" t="s">
         <v>576</v>
       </c>
-      <c r="D367" t="s">
+      <c r="E367">
+        <v>3</v>
+      </c>
+      <c r="F367">
+        <v>0</v>
+      </c>
+      <c r="G367" t="s">
         <v>577</v>
       </c>
-      <c r="E367">
-        <v>10</v>
-      </c>
-      <c r="F367">
-        <v>0</v>
-      </c>
-      <c r="G367" t="s">
-        <v>573</v>
-      </c>
       <c r="H367" t="s">
         <v>12</v>
       </c>
       <c r="I367">
-        <v>5353</v>
+        <v>8284</v>
       </c>
       <c r="J367" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K367">
-        <v>0</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B368">
-        <v>2861</v>
+        <v>3368</v>
       </c>
       <c r="C368" t="s">
+        <v>575</v>
+      </c>
+      <c r="D368" t="s">
+        <v>578</v>
+      </c>
+      <c r="E368">
+        <v>3</v>
+      </c>
+      <c r="F368">
+        <v>0</v>
+      </c>
+      <c r="G368" t="s">
         <v>579</v>
       </c>
-      <c r="D368" t="s">
-        <v>580</v>
-      </c>
-      <c r="E368">
-        <v>5</v>
-      </c>
-      <c r="F368">
-        <v>1</v>
-      </c>
-      <c r="G368" t="s">
-        <v>581</v>
-      </c>
       <c r="H368" t="s">
         <v>12</v>
       </c>
       <c r="I368">
-        <v>3048</v>
+        <v>8256</v>
       </c>
       <c r="J368" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="K368">
-        <v>-88</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="369" spans="1:11" x14ac:dyDescent="0.25">
@@ -15040,13 +14995,13 @@
         <v>13</v>
       </c>
       <c r="B369">
-        <v>2861</v>
+        <v>527</v>
       </c>
       <c r="C369" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D369" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="E369">
         <v>5</v>
@@ -15061,48 +15016,48 @@
         <v>12</v>
       </c>
       <c r="I369">
-        <v>4568</v>
+        <v>2215</v>
       </c>
       <c r="J369" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="K369">
-        <v>-88</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B370">
-        <v>2861</v>
+        <v>527</v>
       </c>
       <c r="C370" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D370" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
       <c r="E370">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F370">
         <v>1</v>
       </c>
       <c r="G370" t="s">
+        <v>582</v>
+      </c>
+      <c r="H370" t="s">
+        <v>12</v>
+      </c>
+      <c r="I370">
+        <v>2215</v>
+      </c>
+      <c r="J370" t="s">
         <v>583</v>
       </c>
-      <c r="H370" t="s">
-        <v>12</v>
-      </c>
-      <c r="I370">
-        <v>5144</v>
-      </c>
-      <c r="J370" t="s">
-        <v>580</v>
-      </c>
       <c r="K370">
-        <v>-88</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="371" spans="1:11" x14ac:dyDescent="0.25">
@@ -15110,188 +15065,188 @@
         <v>13</v>
       </c>
       <c r="B371">
-        <v>2861</v>
+        <v>528</v>
       </c>
       <c r="C371" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D371" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="E371">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="F371">
         <v>1</v>
       </c>
       <c r="G371" t="s">
+        <v>582</v>
+      </c>
+      <c r="H371" t="s">
+        <v>12</v>
+      </c>
+      <c r="I371">
+        <v>2215</v>
+      </c>
+      <c r="J371" t="s">
         <v>584</v>
       </c>
-      <c r="H371" t="s">
-        <v>12</v>
-      </c>
-      <c r="I371">
-        <v>5497</v>
-      </c>
-      <c r="J371" t="s">
-        <v>580</v>
-      </c>
       <c r="K371">
-        <v>-88</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B372">
-        <v>2861</v>
+        <v>528</v>
       </c>
       <c r="C372" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D372" t="s">
-        <v>580</v>
+        <v>585</v>
       </c>
       <c r="E372">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F372">
         <v>1</v>
       </c>
       <c r="G372" t="s">
+        <v>582</v>
+      </c>
+      <c r="H372" t="s">
+        <v>12</v>
+      </c>
+      <c r="I372">
+        <v>2215</v>
+      </c>
+      <c r="J372" t="s">
         <v>585</v>
       </c>
-      <c r="H372" t="s">
-        <v>12</v>
-      </c>
-      <c r="I372">
-        <v>5885</v>
-      </c>
-      <c r="J372" t="s">
-        <v>580</v>
-      </c>
       <c r="K372">
-        <v>-88</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B373">
-        <v>6610</v>
+        <v>529</v>
       </c>
       <c r="C373" t="s">
+        <v>580</v>
+      </c>
+      <c r="D373" t="s">
         <v>586</v>
       </c>
-      <c r="D373" t="s">
-        <v>587</v>
-      </c>
       <c r="E373">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F373">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G373" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="H373" t="s">
         <v>12</v>
       </c>
       <c r="I373">
-        <v>8125</v>
+        <v>2215</v>
       </c>
       <c r="J373" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K373">
-        <v>0</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B374">
-        <v>3367</v>
+        <v>529</v>
       </c>
       <c r="C374" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D374" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E374">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F374">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G374" t="s">
-        <v>591</v>
+        <v>582</v>
       </c>
       <c r="H374" t="s">
         <v>12</v>
       </c>
       <c r="I374">
-        <v>8284</v>
+        <v>2215</v>
       </c>
       <c r="J374" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="K374">
-        <v>-77</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B375">
-        <v>3368</v>
+        <v>532</v>
       </c>
       <c r="C375" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="D375" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="E375">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F375">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G375" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="H375" t="s">
         <v>12</v>
       </c>
       <c r="I375">
-        <v>8256</v>
+        <v>2215</v>
       </c>
       <c r="J375" t="s">
-        <v>592</v>
+        <v>588</v>
       </c>
       <c r="K375">
-        <v>-77</v>
+        <v>-99</v>
       </c>
     </row>
     <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B376">
-        <v>527</v>
+        <v>532</v>
       </c>
       <c r="C376" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D376" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="E376">
         <v>5</v>
@@ -15300,7 +15255,7 @@
         <v>1</v>
       </c>
       <c r="G376" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H376" t="s">
         <v>12</v>
@@ -15309,7 +15264,7 @@
         <v>2215</v>
       </c>
       <c r="J376" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="K376">
         <v>-99</v>
@@ -15317,16 +15272,16 @@
     </row>
     <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B377">
-        <v>527</v>
+        <v>539</v>
       </c>
       <c r="C377" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D377" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="E377">
         <v>5</v>
@@ -15335,7 +15290,7 @@
         <v>1</v>
       </c>
       <c r="G377" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H377" t="s">
         <v>12</v>
@@ -15344,7 +15299,7 @@
         <v>2215</v>
       </c>
       <c r="J377" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K377">
         <v>-99</v>
@@ -15352,16 +15307,16 @@
     </row>
     <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B378">
-        <v>528</v>
+        <v>539</v>
       </c>
       <c r="C378" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D378" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="E378">
         <v>5</v>
@@ -15370,7 +15325,7 @@
         <v>1</v>
       </c>
       <c r="G378" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H378" t="s">
         <v>12</v>
@@ -15379,7 +15334,7 @@
         <v>2215</v>
       </c>
       <c r="J378" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="K378">
         <v>-99</v>
@@ -15387,16 +15342,16 @@
     </row>
     <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B379">
-        <v>528</v>
+        <v>541</v>
       </c>
       <c r="C379" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D379" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E379">
         <v>5</v>
@@ -15405,7 +15360,7 @@
         <v>1</v>
       </c>
       <c r="G379" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H379" t="s">
         <v>12</v>
@@ -15414,7 +15369,7 @@
         <v>2215</v>
       </c>
       <c r="J379" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="K379">
         <v>-99</v>
@@ -15422,16 +15377,16 @@
     </row>
     <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B380">
-        <v>529</v>
+        <v>541</v>
       </c>
       <c r="C380" t="s">
-        <v>594</v>
+        <v>580</v>
       </c>
       <c r="D380" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="E380">
         <v>5</v>
@@ -15440,7 +15395,7 @@
         <v>1</v>
       </c>
       <c r="G380" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H380" t="s">
         <v>12</v>
@@ -15449,7 +15404,7 @@
         <v>2215</v>
       </c>
       <c r="J380" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
       <c r="K380">
         <v>-99</v>
@@ -15457,16 +15412,16 @@
     </row>
     <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B381">
-        <v>529</v>
+        <v>550</v>
       </c>
       <c r="C381" t="s">
+        <v>580</v>
+      </c>
+      <c r="D381" t="s">
         <v>594</v>
-      </c>
-      <c r="D381" t="s">
-        <v>601</v>
       </c>
       <c r="E381">
         <v>5</v>
@@ -15475,7 +15430,7 @@
         <v>1</v>
       </c>
       <c r="G381" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="H381" t="s">
         <v>12</v>
@@ -15484,7 +15439,7 @@
         <v>2215</v>
       </c>
       <c r="J381" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="K381">
         <v>-99</v>
@@ -15495,34 +15450,34 @@
         <v>13</v>
       </c>
       <c r="B382">
-        <v>532</v>
+        <v>1067</v>
       </c>
       <c r="C382" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D382" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="E382">
         <v>5</v>
       </c>
       <c r="F382">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G382" t="s">
+        <v>597</v>
+      </c>
+      <c r="H382" t="s">
+        <v>12</v>
+      </c>
+      <c r="I382">
+        <v>2216</v>
+      </c>
+      <c r="J382" t="s">
         <v>596</v>
       </c>
-      <c r="H382" t="s">
-        <v>12</v>
-      </c>
-      <c r="I382">
-        <v>2215</v>
-      </c>
-      <c r="J382" t="s">
-        <v>602</v>
-      </c>
       <c r="K382">
-        <v>-99</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="383" spans="1:11" x14ac:dyDescent="0.25">
@@ -15530,13 +15485,13 @@
         <v>11</v>
       </c>
       <c r="B383">
-        <v>532</v>
+        <v>1067</v>
       </c>
       <c r="C383" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D383" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="E383">
         <v>5</v>
@@ -15545,368 +15500,123 @@
         <v>1</v>
       </c>
       <c r="G383" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
       <c r="H383" t="s">
         <v>12</v>
       </c>
       <c r="I383">
-        <v>2215</v>
+        <v>3419</v>
       </c>
       <c r="J383" t="s">
-        <v>603</v>
+        <v>598</v>
       </c>
       <c r="K383">
-        <v>-99</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B384">
-        <v>539</v>
+        <v>2967</v>
       </c>
       <c r="C384" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D384" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="E384">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F384">
         <v>1</v>
       </c>
       <c r="G384" t="s">
-        <v>596</v>
+        <v>601</v>
       </c>
       <c r="H384" t="s">
         <v>12</v>
       </c>
       <c r="I384">
-        <v>2215</v>
+        <v>5770</v>
       </c>
       <c r="J384" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="K384">
-        <v>-99</v>
+        <v>-77</v>
       </c>
     </row>
     <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B385">
-        <v>539</v>
+        <v>2783</v>
       </c>
       <c r="C385" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="D385" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E385">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F385">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G385" t="s">
-        <v>596</v>
+        <v>602</v>
       </c>
       <c r="H385" t="s">
         <v>12</v>
       </c>
       <c r="I385">
-        <v>2215</v>
+        <v>7826</v>
       </c>
       <c r="J385" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="K385">
-        <v>-99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B386">
-        <v>541</v>
+        <v>2939</v>
       </c>
       <c r="C386" t="s">
-        <v>594</v>
+        <v>605</v>
       </c>
       <c r="D386" t="s">
         <v>606</v>
       </c>
       <c r="E386">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F386">
         <v>1</v>
       </c>
       <c r="G386" t="s">
-        <v>596</v>
+        <v>607</v>
       </c>
       <c r="H386" t="s">
         <v>12</v>
       </c>
       <c r="I386">
-        <v>2215</v>
+        <v>7907</v>
       </c>
       <c r="J386" t="s">
         <v>606</v>
       </c>
       <c r="K386">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A387" t="s">
-        <v>11</v>
-      </c>
-      <c r="B387">
-        <v>541</v>
-      </c>
-      <c r="C387" t="s">
-        <v>594</v>
-      </c>
-      <c r="D387" t="s">
-        <v>607</v>
-      </c>
-      <c r="E387">
-        <v>5</v>
-      </c>
-      <c r="F387">
-        <v>1</v>
-      </c>
-      <c r="G387" t="s">
-        <v>596</v>
-      </c>
-      <c r="H387" t="s">
-        <v>12</v>
-      </c>
-      <c r="I387">
-        <v>2215</v>
-      </c>
-      <c r="J387" t="s">
-        <v>607</v>
-      </c>
-      <c r="K387">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A388" t="s">
-        <v>13</v>
-      </c>
-      <c r="B388">
-        <v>550</v>
-      </c>
-      <c r="C388" t="s">
-        <v>594</v>
-      </c>
-      <c r="D388" t="s">
-        <v>608</v>
-      </c>
-      <c r="E388">
-        <v>5</v>
-      </c>
-      <c r="F388">
-        <v>1</v>
-      </c>
-      <c r="G388" t="s">
-        <v>596</v>
-      </c>
-      <c r="H388" t="s">
-        <v>12</v>
-      </c>
-      <c r="I388">
-        <v>2215</v>
-      </c>
-      <c r="J388" t="s">
-        <v>608</v>
-      </c>
-      <c r="K388">
-        <v>-99</v>
-      </c>
-    </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A389" t="s">
-        <v>13</v>
-      </c>
-      <c r="B389">
-        <v>1067</v>
-      </c>
-      <c r="C389" t="s">
-        <v>609</v>
-      </c>
-      <c r="D389" t="s">
-        <v>610</v>
-      </c>
-      <c r="E389">
-        <v>5</v>
-      </c>
-      <c r="F389">
-        <v>0</v>
-      </c>
-      <c r="G389" t="s">
-        <v>611</v>
-      </c>
-      <c r="H389" t="s">
-        <v>12</v>
-      </c>
-      <c r="I389">
-        <v>2216</v>
-      </c>
-      <c r="J389" t="s">
-        <v>610</v>
-      </c>
-      <c r="K389">
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A390" t="s">
-        <v>11</v>
-      </c>
-      <c r="B390">
-        <v>1067</v>
-      </c>
-      <c r="C390" t="s">
-        <v>609</v>
-      </c>
-      <c r="D390" t="s">
-        <v>612</v>
-      </c>
-      <c r="E390">
-        <v>5</v>
-      </c>
-      <c r="F390">
-        <v>1</v>
-      </c>
-      <c r="G390" t="s">
-        <v>613</v>
-      </c>
-      <c r="H390" t="s">
-        <v>12</v>
-      </c>
-      <c r="I390">
-        <v>3419</v>
-      </c>
-      <c r="J390" t="s">
-        <v>612</v>
-      </c>
-      <c r="K390">
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A391" t="s">
-        <v>11</v>
-      </c>
-      <c r="B391">
-        <v>2967</v>
-      </c>
-      <c r="C391" t="s">
-        <v>609</v>
-      </c>
-      <c r="D391" t="s">
-        <v>614</v>
-      </c>
-      <c r="E391">
-        <v>6</v>
-      </c>
-      <c r="F391">
-        <v>1</v>
-      </c>
-      <c r="G391" t="s">
-        <v>615</v>
-      </c>
-      <c r="H391" t="s">
-        <v>12</v>
-      </c>
-      <c r="I391">
-        <v>5770</v>
-      </c>
-      <c r="J391" t="s">
-        <v>614</v>
-      </c>
-      <c r="K391">
-        <v>-77</v>
-      </c>
-    </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A392" t="s">
-        <v>13</v>
-      </c>
-      <c r="B392">
-        <v>2783</v>
-      </c>
-      <c r="C392" t="s">
-        <v>617</v>
-      </c>
-      <c r="D392" t="s">
-        <v>618</v>
-      </c>
-      <c r="E392">
-        <v>10</v>
-      </c>
-      <c r="F392">
-        <v>0</v>
-      </c>
-      <c r="G392" t="s">
-        <v>616</v>
-      </c>
-      <c r="H392" t="s">
-        <v>12</v>
-      </c>
-      <c r="I392">
-        <v>7826</v>
-      </c>
-      <c r="J392" t="s">
-        <v>618</v>
-      </c>
-      <c r="K392">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A393" t="s">
-        <v>11</v>
-      </c>
-      <c r="B393">
-        <v>2939</v>
-      </c>
-      <c r="C393" t="s">
-        <v>619</v>
-      </c>
-      <c r="D393" t="s">
-        <v>620</v>
-      </c>
-      <c r="E393">
-        <v>4</v>
-      </c>
-      <c r="F393">
-        <v>1</v>
-      </c>
-      <c r="G393" t="s">
-        <v>621</v>
-      </c>
-      <c r="H393" t="s">
-        <v>12</v>
-      </c>
-      <c r="I393">
-        <v>7907</v>
-      </c>
-      <c r="J393" t="s">
-        <v>620</v>
-      </c>
-      <c r="K393">
         <v>0</v>
       </c>
     </row>
